--- a/combined.xlsx
+++ b/combined.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,3681 +407,2679 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almira</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Anacortes</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1149</v>
+      </c>
       <c r="C4" t="n">
-        <v>66277.16666666667</v>
+        <v>97004.68181818182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Anacortes</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C5" t="n">
-        <v>97004.68181818182</v>
+        <v>98069.94444444444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Asotin-Anatone</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140</v>
+        <v>1035</v>
       </c>
       <c r="C6" t="n">
-        <v>98069.94444444444</v>
+        <v>72936.66666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Asotin-Anatone</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1035</v>
+        <v>947</v>
       </c>
       <c r="C7" t="n">
-        <v>72936.66666666667</v>
+        <v>98183.28165374677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Bainbridge</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>947</v>
+        <v>1267</v>
       </c>
       <c r="C8" t="n">
-        <v>98183.28165374677</v>
+        <v>85921.72727272728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bainbridge</t>
+          <t>Battle Ground</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1267</v>
+        <v>1129</v>
       </c>
       <c r="C9" t="n">
-        <v>85921.72727272728</v>
+        <v>80003.29357798165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Battle Ground</t>
+          <t>Bellevue</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1129</v>
+        <v>1273</v>
       </c>
       <c r="C10" t="n">
-        <v>80003.29357798165</v>
+        <v>91583.06451612903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Bellevue</t>
+          <t>Bellingham</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1273</v>
+        <v>1169</v>
       </c>
       <c r="C11" t="n">
-        <v>91583.06451612903</v>
+        <v>81914.19713261649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Bellingham</t>
+          <t>Bethel</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1169</v>
+        <v>1046</v>
       </c>
       <c r="C12" t="n">
-        <v>81914.19713261649</v>
+        <v>76995.17841409691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bethel</t>
+          <t>Blaine</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1046</v>
+        <v>1135</v>
       </c>
       <c r="C13" t="n">
-        <v>76995.17841409691</v>
+        <v>85511.80769230769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bickleton</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Bremerton</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1024</v>
+      </c>
       <c r="C14" t="n">
-        <v>69152.375</v>
+        <v>89494.55118110236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Blaine</t>
+          <t>Brewster</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1135</v>
+        <v>890</v>
       </c>
       <c r="C15" t="n">
-        <v>85511.80769230769</v>
+        <v>69024.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Boistfort</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>Bridgeport</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>932</v>
+      </c>
       <c r="C16" t="n">
-        <v>48246</v>
+        <v>71198.5925925926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bremerton</t>
+          <t>Burlington-Edison</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1024</v>
+        <v>994</v>
       </c>
       <c r="C17" t="n">
-        <v>89494.55118110236</v>
+        <v>87945.53012048193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Brewster</t>
+          <t>Camas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>890</v>
+        <v>1182</v>
       </c>
       <c r="C18" t="n">
-        <v>69024.88</v>
+        <v>85689.535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Cape Flattery</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>932</v>
+        <v>1028</v>
       </c>
       <c r="C19" t="n">
-        <v>71198.5925925926</v>
+        <v>74721.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Brinnon</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Cascade</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1057</v>
+      </c>
       <c r="C20" t="n">
-        <v>63464</v>
+        <v>69241.22222222222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Burlington-Edison</t>
+          <t>Cashmere</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>994</v>
+        <v>1069</v>
       </c>
       <c r="C21" t="n">
-        <v>87945.53012048193</v>
+        <v>82226.97674418605</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Camas</t>
+          <t>Castle Rock</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182</v>
+        <v>999</v>
       </c>
       <c r="C22" t="n">
-        <v>85689.535</v>
+        <v>71649.89999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cape Flattery</t>
+          <t>Central Kitsap</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1028</v>
+        <v>1145</v>
       </c>
       <c r="C23" t="n">
-        <v>74721.05</v>
+        <v>96549.6094890511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Carbonado</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Central Valley</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1142</v>
+      </c>
       <c r="C24" t="n">
-        <v>75148</v>
+        <v>85352.7627118644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cascade</t>
+          <t>Centralia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057</v>
+        <v>1018</v>
       </c>
       <c r="C25" t="n">
-        <v>69241.22222222222</v>
+        <v>84166.9420289855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Cashmere</t>
+          <t>Chehalis</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1069</v>
+        <v>1091</v>
       </c>
       <c r="C26" t="n">
-        <v>82226.97674418605</v>
+        <v>86177.83333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Castle Rock</t>
+          <t>Cheney</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>999</v>
+        <v>1092</v>
       </c>
       <c r="C27" t="n">
-        <v>71649.89999999999</v>
+        <v>71898.16197183098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Centerville</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>Chewelah</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1045</v>
+      </c>
       <c r="C28" t="n">
-        <v>93540</v>
+        <v>75127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Central Kitsap</t>
+          <t>Chimacum</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1145</v>
+        <v>1101</v>
       </c>
       <c r="C29" t="n">
-        <v>96549.6094890511</v>
+        <v>72636.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Central Valley</t>
+          <t>Clarkston</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1142</v>
+        <v>1085</v>
       </c>
       <c r="C30" t="n">
-        <v>85352.7627118644</v>
+        <v>85806.6129032258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Centralia</t>
+          <t>Cle Elum-Roslyn</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1018</v>
+        <v>1081</v>
       </c>
       <c r="C31" t="n">
-        <v>84166.9420289855</v>
+        <v>63626.92307692308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chehalis</t>
+          <t>Clover Park</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1091</v>
+        <v>1054</v>
       </c>
       <c r="C32" t="n">
-        <v>86177.83333333333</v>
+        <v>88222.2072072072</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Cheney</t>
+          <t>Colfax</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C33" t="n">
-        <v>71898.16197183098</v>
+        <v>64535.61111111111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chewelah</t>
+          <t>College Place</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C34" t="n">
-        <v>75127</v>
+        <v>68112.13333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Chief Leschi Tribal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>Colton</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1044</v>
+      </c>
       <c r="C35" t="n">
-        <v>66293.85185185185</v>
+        <v>74406.44444444444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Chimacum</t>
+          <t>Columbia (Wal)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1101</v>
+        <v>1057</v>
       </c>
       <c r="C36" t="n">
-        <v>72636.72</v>
+        <v>81437.63636363637</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clarkston</t>
+          <t>Colville</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085</v>
+        <v>1006</v>
       </c>
       <c r="C37" t="n">
-        <v>85806.6129032258</v>
+        <v>77341.01923076923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cle Elum-Roslyn</t>
+          <t>Coulee-Hartline</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1081</v>
+        <v>1057</v>
       </c>
       <c r="C38" t="n">
-        <v>63626.92307692308</v>
+        <v>47796.83333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Clover Park</t>
+          <t>Coupeville</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1054</v>
+        <v>1004</v>
       </c>
       <c r="C39" t="n">
-        <v>88222.2072072072</v>
+        <v>89897.74074074074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Colfax</t>
+          <t>Curlew</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1080</v>
+        <v>1043</v>
       </c>
       <c r="C40" t="n">
-        <v>64535.61111111111</v>
+        <v>57367.36363636364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>College Place</t>
+          <t>Cusick</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1037</v>
+        <v>895</v>
       </c>
       <c r="C41" t="n">
-        <v>68112.13333333333</v>
+        <v>60756.41666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Colton</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1044</v>
+        <v>962</v>
       </c>
       <c r="C42" t="n">
-        <v>74406.44444444444</v>
+        <v>68025.375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Columbia (Ste)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1035</v>
+      </c>
       <c r="C43" t="n">
-        <v>62614.83333333334</v>
+        <v>67641.38888888889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Columbia (Wal)</t>
+          <t>Deer Park</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C44" t="n">
-        <v>81437.63636363637</v>
+        <v>77768.56060606061</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Colville</t>
+          <t>East Valley (Spo)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C45" t="n">
-        <v>77341.01923076923</v>
+        <v>82436.41666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Concrete</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>East Valley (Yak)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1066</v>
+      </c>
       <c r="C46" t="n">
-        <v>81037.57142857143</v>
+        <v>81084.90140845071</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Conway</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>Eastmont</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1056</v>
+      </c>
       <c r="C47" t="n">
-        <v>108898.8333333333</v>
+        <v>82602.39285714286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Coulee-Hartline</t>
+          <t>Eatonville</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C48" t="n">
-        <v>47796.83333333334</v>
+        <v>76782.20370370371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Coupeville</t>
+          <t>Edmonds</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1004</v>
+        <v>1129</v>
       </c>
       <c r="C49" t="n">
-        <v>89897.74074074074</v>
+        <v>89397.07439824945</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Crescent</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>Ellensburg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1107</v>
+      </c>
       <c r="C50" t="n">
-        <v>73516</v>
+        <v>74097.85333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Creston</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>Elma</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1088</v>
+      </c>
       <c r="C51" t="n">
-        <v>60930</v>
+        <v>87594.15384615384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Curlew</t>
+          <t>Enumclaw</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="C52" t="n">
-        <v>57367.36363636364</v>
+        <v>88423.42391304347</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Cusick</t>
+          <t>Ephrata</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>895</v>
+        <v>1009</v>
       </c>
       <c r="C53" t="n">
-        <v>60756.41666666666</v>
+        <v>80652.15254237287</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Darrington</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>Everett</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1031</v>
+      </c>
       <c r="C54" t="n">
-        <v>91947.5</v>
+        <v>107466.3848039216</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Evergreen (Clark)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>962</v>
+        <v>1076</v>
       </c>
       <c r="C55" t="n">
-        <v>68025.375</v>
+        <v>83793.30694444444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Dayton</t>
+          <t>Federal Way</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1035</v>
+        <v>934</v>
       </c>
       <c r="C56" t="n">
-        <v>67641.38888888889</v>
+        <v>84720.11148086522</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Deer Park</t>
+          <t>Ferndale</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1056</v>
+        <v>1117</v>
       </c>
       <c r="C57" t="n">
-        <v>77768.56060606061</v>
+        <v>90355.06422018349</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Dieringer</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>Fife</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1097</v>
+      </c>
       <c r="C58" t="n">
-        <v>99022.73333333334</v>
+        <v>89722.6626506024</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ESD 112</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>Finley</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>954</v>
+      </c>
       <c r="C59" t="n">
-        <v>59151.73809523809</v>
+        <v>85126.30769230769</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>East Valley (Spo)</t>
+          <t>Franklin Pierce</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1008</v>
+        <v>914</v>
       </c>
       <c r="C60" t="n">
-        <v>82436.41666666667</v>
+        <v>83493.28735632185</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>East Valley (Yak)</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="C61" t="n">
-        <v>81084.90140845071</v>
+        <v>66346.06896551725</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Eastmont</t>
+          <t>Goldendale</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1056</v>
+        <v>1130</v>
       </c>
       <c r="C62" t="n">
-        <v>82602.39285714286</v>
+        <v>71497.41666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Easton</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>Grand Coulee Dam</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>951</v>
+      </c>
       <c r="C63" t="n">
-        <v>62410.1</v>
+        <v>63743.13043478261</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Eatonville</t>
+          <t>Grandview</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1047</v>
+        <v>903</v>
       </c>
       <c r="C64" t="n">
-        <v>76782.20370370371</v>
+        <v>75837.16666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Edmonds</t>
+          <t>Granger</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1129</v>
+        <v>938</v>
       </c>
       <c r="C65" t="n">
-        <v>89397.07439824945</v>
+        <v>84947.10526315789</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Ellensburg</t>
+          <t>Granite Falls</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1107</v>
+        <v>1079</v>
       </c>
       <c r="C66" t="n">
-        <v>74097.85333333333</v>
+        <v>92116.77551020408</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Elma</t>
+          <t>Highland</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1088</v>
+        <v>925</v>
       </c>
       <c r="C67" t="n">
-        <v>87594.15384615384</v>
+        <v>80937.14285714286</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Endicott</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>947</v>
+      </c>
       <c r="C68" t="n">
-        <v>65694.42857142857</v>
+        <v>86321.36363636363</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>Hockinson</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1091</v>
+      </c>
       <c r="C69" t="n">
-        <v>79215.09090909091</v>
+        <v>77484.36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Enumclaw</t>
+          <t>Hoquiam</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="C70" t="n">
-        <v>88423.42391304347</v>
+        <v>84651.43902439025</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Ephrata</t>
+          <t>Inchelium</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1009</v>
+        <v>846</v>
       </c>
       <c r="C71" t="n">
-        <v>80652.15254237287</v>
+        <v>77006.09090909091</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Everett</t>
+          <t>Issaquah</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1031</v>
+        <v>1270</v>
       </c>
       <c r="C72" t="n">
-        <v>107466.3848039216</v>
+        <v>93727.46506024097</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Evergreen (Clark)</t>
+          <t>Kalama</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1076</v>
+        <v>1102</v>
       </c>
       <c r="C73" t="n">
-        <v>83793.30694444444</v>
+        <v>75589.16666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Federal Way</t>
+          <t>Kelso</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>934</v>
+        <v>1016</v>
       </c>
       <c r="C74" t="n">
-        <v>84720.11148086522</v>
+        <v>72694.62385321101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Ferndale</t>
+          <t>Kennewick</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1117</v>
+        <v>1054</v>
       </c>
       <c r="C75" t="n">
-        <v>90355.06422018349</v>
+        <v>85505.72881355933</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Fife</t>
+          <t>Kent</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1097</v>
+        <v>1007</v>
       </c>
       <c r="C76" t="n">
-        <v>89722.6626506024</v>
+        <v>84460.24193548386</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Finley</t>
+          <t>Kettle Falls</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>954</v>
+        <v>1116</v>
       </c>
       <c r="C77" t="n">
-        <v>85126.30769230769</v>
+        <v>74731.42857142857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Franklin Pierce</t>
+          <t>Kiona-Benton City</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="C78" t="n">
-        <v>83493.28735632185</v>
+        <v>84956.89999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>Kittitas</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1115</v>
+        <v>968</v>
       </c>
       <c r="C79" t="n">
-        <v>66346.06896551725</v>
+        <v>71547.86363636363</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Garfield</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>La Conner</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1070</v>
+      </c>
       <c r="C80" t="n">
-        <v>66796.5</v>
+        <v>90610</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Glenwood</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>Lacenter</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1033</v>
+      </c>
       <c r="C81" t="n">
-        <v>68952</v>
+        <v>76775.51282051283</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Goldendale</t>
+          <t>Lake Chelan</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1130</v>
+        <v>964</v>
       </c>
       <c r="C82" t="n">
-        <v>71497.41666666667</v>
+        <v>80185.97826086957</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Grand Coulee Dam</t>
+          <t>Lake Stevens</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>951</v>
+        <v>1139</v>
       </c>
       <c r="C83" t="n">
-        <v>63743.13043478261</v>
+        <v>97158.78494623656</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Grandview</t>
+          <t>Lake Washington</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>903</v>
+        <v>1259</v>
       </c>
       <c r="C84" t="n">
-        <v>75837.16666666667</v>
+        <v>87408.32385466035</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Granger</t>
+          <t>Lakewood</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>938</v>
+        <v>1060</v>
       </c>
       <c r="C85" t="n">
-        <v>84947.10526315789</v>
+        <v>90627.64814814815</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Granite Falls</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C86" t="n">
-        <v>92116.77551020408</v>
+        <v>84189.92857142857</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Grapeview</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>Longview</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1078</v>
+      </c>
       <c r="C87" t="n">
-        <v>67100.33333333333</v>
+        <v>78267.67424242424</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Green Dot Destiny</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>Lyle</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>866</v>
+      </c>
       <c r="C88" t="n">
-        <v>63946.5</v>
+        <v>56195.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Green Dot Excel</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>Lynden</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1111</v>
+      </c>
       <c r="C89" t="n">
-        <v>63532.92307692308</v>
+        <v>82627.10769230769</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Green Dot Rainier</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>Mabton</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>885</v>
+      </c>
       <c r="C90" t="n">
-        <v>55501.61538461538</v>
+        <v>71505.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Griffin</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>Manson</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>923</v>
+      </c>
       <c r="C91" t="n">
-        <v>75631.77777777778</v>
+        <v>75870.10000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Harrington</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>Mary Walker</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>975</v>
+      </c>
       <c r="C92" t="n">
-        <v>58937.44444444445</v>
+        <v>75033.47368421052</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Highland</t>
+          <t>Marysville</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="C93" t="n">
-        <v>80937.14285714286</v>
+        <v>102265.7523809524</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Highline</t>
+          <t>Mead</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>947</v>
+        <v>1109</v>
       </c>
       <c r="C94" t="n">
-        <v>86321.36363636363</v>
+        <v>88774.76422764227</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Hockinson</t>
+          <t>Medical Lake</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1091</v>
+        <v>1120</v>
       </c>
       <c r="C95" t="n">
-        <v>77484.36</v>
+        <v>76985.32653061225</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Hood Canal</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>Mercer Island</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1316</v>
+      </c>
       <c r="C96" t="n">
-        <v>70381</v>
+        <v>93696.79508196721</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Hoquiam</t>
+          <t>Meridian</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1067</v>
+        <v>1116</v>
       </c>
       <c r="C97" t="n">
-        <v>84651.43902439025</v>
+        <v>80670.4054054054</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Inchelium</t>
+          <t>Methow Valley</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>846</v>
+        <v>1128</v>
       </c>
       <c r="C98" t="n">
-        <v>77006.09090909091</v>
+        <v>61129.66666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Issaquah</t>
+          <t>Monroe</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1270</v>
+        <v>1084</v>
       </c>
       <c r="C99" t="n">
-        <v>93727.46506024097</v>
+        <v>89931.5294117647</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Kahlotus</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>Montesano</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1045</v>
+      </c>
       <c r="C100" t="n">
-        <v>71795.5</v>
+        <v>90575.79411764706</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Kalama</t>
+          <t>Moses Lake</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1102</v>
+        <v>961</v>
       </c>
       <c r="C101" t="n">
-        <v>75589.16666666667</v>
+        <v>87724.80769230769</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Kelso</t>
+          <t>Mossyrock</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1016</v>
+        <v>956</v>
       </c>
       <c r="C102" t="n">
-        <v>72694.62385321101</v>
+        <v>86010.8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Kennewick</t>
+          <t>Mount Adams</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1054</v>
+        <v>990</v>
       </c>
       <c r="C103" t="n">
-        <v>85505.72881355933</v>
+        <v>76754.64285714286</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Kent</t>
+          <t>Mount Baker</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1007</v>
+        <v>1076</v>
       </c>
       <c r="C104" t="n">
-        <v>84460.24193548386</v>
+        <v>88024.3829787234</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Kettle Falls</t>
+          <t>Mt Vernon</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1116</v>
+        <v>1033</v>
       </c>
       <c r="C105" t="n">
-        <v>74731.42857142857</v>
+        <v>82926.31952662722</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Kiona-Benton City</t>
+          <t>Mukilteo</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>931</v>
+        <v>1154</v>
       </c>
       <c r="C106" t="n">
-        <v>84956.89999999999</v>
+        <v>99805.66666666667</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Kittitas</t>
+          <t>Naches Valley</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="C107" t="n">
-        <v>71547.86363636363</v>
+        <v>71116.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Klickitat</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>Napavine</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1020</v>
+      </c>
       <c r="C108" t="n">
-        <v>65581</v>
+        <v>70947.04347826086</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>La Conner</t>
+          <t>Naselle-Grays R.</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1070</v>
+        <v>1008</v>
       </c>
       <c r="C109" t="n">
-        <v>90610</v>
+        <v>76456.88235294117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Lacenter</t>
+          <t>Newport</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1033</v>
+        <v>1101</v>
       </c>
       <c r="C110" t="n">
-        <v>76775.51282051283</v>
+        <v>74007.51515151515</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Lacrosse</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>Nine Mile Falls</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1085</v>
+      </c>
       <c r="C111" t="n">
-        <v>68214.71428571429</v>
+        <v>75538.63636363637</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Lake Chelan</t>
+          <t>Nooksack Valley</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>964</v>
+        <v>1019</v>
       </c>
       <c r="C112" t="n">
-        <v>80185.97826086957</v>
+        <v>80131.83333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Lake Quinault</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>North Beach</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>915</v>
+      </c>
       <c r="C113" t="n">
-        <v>68435</v>
+        <v>63963.1875</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Lake Stevens</t>
+          <t>North Franklin</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1139</v>
+        <v>929</v>
       </c>
       <c r="C114" t="n">
-        <v>97158.78494623656</v>
+        <v>81265.1875</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Lake Washington</t>
+          <t>North Kitsap</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1259</v>
+        <v>1143</v>
       </c>
       <c r="C115" t="n">
-        <v>87408.32385466035</v>
+        <v>88934.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Lakewood</t>
+          <t>North Mason</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1060</v>
+        <v>1022</v>
       </c>
       <c r="C116" t="n">
-        <v>90627.64814814815</v>
+        <v>83878.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Lamont</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
+          <t>North Thurston</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1084</v>
+      </c>
       <c r="C117" t="n">
-        <v>48322.6</v>
+        <v>81185.42296918767</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Northshore</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1076</v>
+        <v>1214</v>
       </c>
       <c r="C118" t="n">
-        <v>84189.92857142857</v>
+        <v>98325.4465116279</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Lind</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
+          <t>Oak Harbor</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1113</v>
+      </c>
       <c r="C119" t="n">
-        <v>72154.42857142857</v>
+        <v>90054.10852713179</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Longview</t>
+          <t>Oakesdale</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1078</v>
+        <v>1048</v>
       </c>
       <c r="C120" t="n">
-        <v>78267.67424242424</v>
+        <v>71763.57142857143</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Loon Lake</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>Ocean Beach</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1070</v>
+      </c>
       <c r="C121" t="n">
-        <v>32479.75</v>
+        <v>70176.96296296296</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Lopez Island</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
+          <t>Ocosta</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1110</v>
+      </c>
       <c r="C122" t="n">
-        <v>67720.41666666667</v>
+        <v>85015.27777777778</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Lummi Tribal</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>966</v>
+      </c>
       <c r="C123" t="n">
-        <v>64241.73684210526</v>
+        <v>74351.03703703704</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Lyle</t>
+          <t>Olympia</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>866</v>
+        <v>1196</v>
       </c>
       <c r="C124" t="n">
-        <v>56195.5</v>
+        <v>74368.97983870968</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Lynden</t>
+          <t>Omak</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1111</v>
+        <v>1003</v>
       </c>
       <c r="C125" t="n">
-        <v>82627.10769230769</v>
+        <v>75693.83333333333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Mabton</t>
+          <t>Onalaska</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>885</v>
+        <v>970</v>
       </c>
       <c r="C126" t="n">
-        <v>71505.95</v>
+        <v>72044.72</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Mansfield</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>Orcas Island</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1285</v>
+      </c>
       <c r="C127" t="n">
-        <v>70830.5</v>
+        <v>74052.35714285714</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Manson</t>
+          <t>Oroville</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C128" t="n">
-        <v>75870.10000000001</v>
+        <v>68657.94117647059</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Mary M. Knight</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>Orting</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1057</v>
+      </c>
       <c r="C129" t="n">
-        <v>57203.14285714286</v>
+        <v>82200.90566037736</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Mary Walker</t>
+          <t>Othello</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="C130" t="n">
-        <v>75033.47368421052</v>
+        <v>76333.51162790698</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Marysville</t>
+          <t>Pasco</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>954</v>
+        <v>987</v>
       </c>
       <c r="C131" t="n">
-        <v>102265.7523809524</v>
+        <v>77127.07633587786</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>McCleary</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>Pateros</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>927</v>
+      </c>
       <c r="C132" t="n">
-        <v>52108.6</v>
+        <v>79064.30769230769</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Mead</t>
+          <t>Peninsula</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1109</v>
+        <v>1135</v>
       </c>
       <c r="C133" t="n">
-        <v>88774.76422764227</v>
+        <v>82913.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Medical Lake</t>
+          <t>Pomeroy</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1120</v>
+        <v>1007</v>
       </c>
       <c r="C134" t="n">
-        <v>76985.32653061225</v>
+        <v>71862</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Mercer Island</t>
+          <t>Port Angeles</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1316</v>
+        <v>1048</v>
       </c>
       <c r="C135" t="n">
-        <v>93696.79508196721</v>
+        <v>82678.05813953489</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Meridian</t>
+          <t>Port Townsend</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1116</v>
+        <v>1155</v>
       </c>
       <c r="C136" t="n">
-        <v>80670.4054054054</v>
+        <v>76128.05555555556</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Methow Valley</t>
+          <t>Prescott</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1128</v>
+        <v>891</v>
       </c>
       <c r="C137" t="n">
-        <v>61129.66666666666</v>
+        <v>71967</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Mill A</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
+          <t>Prosser</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1014</v>
+      </c>
       <c r="C138" t="n">
-        <v>59665.1</v>
+        <v>77702.65714285715</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Monroe</t>
+          <t>Pullman</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1084</v>
+        <v>1200</v>
       </c>
       <c r="C139" t="n">
-        <v>89931.5294117647</v>
+        <v>73997.04477611941</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Montesano</t>
+          <t>Puyallup</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1045</v>
+        <v>1093</v>
       </c>
       <c r="C140" t="n">
-        <v>90575.79411764706</v>
+        <v>91953.35714285714</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Morton</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>Quilcene</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>952</v>
+      </c>
       <c r="C141" t="n">
-        <v>58555.72727272727</v>
+        <v>72115.09090909091</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Moses Lake</t>
+          <t>Quillayute Valley</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="C142" t="n">
-        <v>87724.80769230769</v>
+        <v>71301.70370370371</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Mossyrock</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C143" t="n">
-        <v>86010.8</v>
+        <v>80546.32203389831</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Mount Adams</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>968</v>
+      </c>
       <c r="C144" t="n">
-        <v>76754.64285714286</v>
+        <v>79170.33333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Mount Baker</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>993</v>
+      </c>
       <c r="C145" t="n">
-        <v>88024.3829787234</v>
+        <v>78827.25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Mount Pleasant</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
+          <t>Reardan</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>994</v>
+      </c>
       <c r="C146" t="n">
-        <v>55568</v>
+        <v>73648.83333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Mount Vernon</t>
+          <t>Renton</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1033</v>
-      </c>
-      <c r="C147" t="inlineStr"/>
+        <v>999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>86721.72881355933</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Mt Adams</t>
+          <t>Richland</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>990</v>
-      </c>
-      <c r="C148" t="inlineStr"/>
+        <v>1145</v>
+      </c>
+      <c r="C148" t="n">
+        <v>83950.09477124183</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Mt Baker</t>
+          <t>Ridgefield</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1076</v>
-      </c>
-      <c r="C149" t="inlineStr"/>
+        <v>1146</v>
+      </c>
+      <c r="C149" t="n">
+        <v>77876.08333333333</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Mt Vernon</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
+          <t>Ritzville</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>985</v>
+      </c>
       <c r="C150" t="n">
-        <v>82926.31952662722</v>
+        <v>78109.07142857143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Muckleshoot Tribal</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
+          <t>Riverside</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1036</v>
+      </c>
       <c r="C151" t="n">
-        <v>85221.03448275862</v>
+        <v>75479.22580645161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Mukilteo</t>
+          <t>Riverview</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1154</v>
+        <v>1167</v>
       </c>
       <c r="C152" t="n">
-        <v>99805.66666666667</v>
+        <v>89699.13253012048</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Naches Valley</t>
+          <t>Rochester</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1000</v>
+        <v>1101</v>
       </c>
       <c r="C153" t="n">
-        <v>71116.7</v>
+        <v>73636.82142857143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Napavine</t>
+          <t>Royal</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1020</v>
+        <v>958</v>
       </c>
       <c r="C154" t="n">
-        <v>70947.04347826086</v>
+        <v>73285.65789473684</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Naselle-Grays R.</t>
+          <t>San Juan Island</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1008</v>
+        <v>1128</v>
       </c>
       <c r="C155" t="n">
-        <v>76456.88235294117</v>
+        <v>83634.15384615384</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nespelem</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1103</v>
+      </c>
       <c r="C156" t="n">
-        <v>42515</v>
+        <v>84796.65109034268</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Newport</t>
+          <t>Sedro-Woolley</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C157" t="n">
-        <v>74007.51515151515</v>
+        <v>86852.28828828828</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Nine Mile Falls</t>
+          <t>Selah</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1085</v>
+        <v>1058</v>
       </c>
       <c r="C158" t="n">
-        <v>75538.63636363637</v>
+        <v>76075.33720930232</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Nooksack Valley</t>
+          <t>Selkirk</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="C159" t="n">
-        <v>80131.83333333333</v>
+        <v>63658.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>North Beach</t>
+          <t>Sequim</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>915</v>
+        <v>1136</v>
       </c>
       <c r="C160" t="n">
-        <v>63963.1875</v>
+        <v>82465.89393939394</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>North Franklin</t>
+          <t>Shelton</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>929</v>
+        <v>1035</v>
       </c>
       <c r="C161" t="n">
-        <v>81265.1875</v>
+        <v>78774.64102564103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>North Kitsap</t>
+          <t>Shoreline</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1143</v>
+        <v>1167</v>
       </c>
       <c r="C162" t="n">
-        <v>88934.8</v>
+        <v>95997.6213592233</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>North Mason</t>
+          <t>Snohomish</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1022</v>
+        <v>1174</v>
       </c>
       <c r="C163" t="n">
-        <v>83878.5</v>
+        <v>100287.8651162791</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>North River</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr"/>
+          <t>Snoqualmie Valley</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1151</v>
+      </c>
       <c r="C164" t="n">
-        <v>81988.83333333333</v>
+        <v>84148.99280575539</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>North Thurston</t>
+          <t>Soap Lake</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1084</v>
+        <v>910</v>
       </c>
       <c r="C165" t="n">
-        <v>81185.42296918767</v>
+        <v>72980.16666666667</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Northport</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
+          <t>South Bend</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1014</v>
+      </c>
       <c r="C166" t="n">
-        <v>65752.89999999999</v>
+        <v>78757.14285714286</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Northshore</t>
+          <t>South Kitsap</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1214</v>
+        <v>985</v>
       </c>
       <c r="C167" t="n">
-        <v>98325.4465116279</v>
+        <v>89551.08673469388</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Oak Harbor</t>
+          <t>South Whidbey</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1113</v>
+        <v>1083</v>
       </c>
       <c r="C168" t="n">
-        <v>90054.10852713179</v>
+        <v>93654.05</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Oakesdale</t>
+          <t>Spokane</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1048</v>
+        <v>995</v>
       </c>
       <c r="C169" t="n">
-        <v>71763.57142857143</v>
+        <v>89246.97576736672</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Oakville</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
+          <t>Stanwood-Camano</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1104</v>
+      </c>
       <c r="C170" t="n">
-        <v>61848.7</v>
+        <v>96648.09375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Ocean Beach</t>
+          <t>Steilacoom Hist.</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1070</v>
+        <v>1126</v>
       </c>
       <c r="C171" t="n">
-        <v>70176.96296296296</v>
+        <v>84311.07462686567</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Ocosta</t>
+          <t>Stevenson-Carson</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1110</v>
+        <v>1061</v>
       </c>
       <c r="C172" t="n">
-        <v>85015.27777777778</v>
+        <v>77063.81818181818</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Odessa</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr"/>
+          <t>Sultan</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1055</v>
+      </c>
       <c r="C173" t="n">
-        <v>72138.30769230769</v>
+        <v>90180.73214285714</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Sumner</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>966</v>
+        <v>1090</v>
       </c>
       <c r="C174" t="n">
-        <v>74351.03703703704</v>
+        <v>87388.91219512196</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Olympia</t>
+          <t>Sunnyside</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1196</v>
+        <v>913</v>
       </c>
       <c r="C175" t="n">
-        <v>74368.97983870968</v>
+        <v>82104.39189189189</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Omak</t>
+          <t>Tacoma</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1003</v>
+        <v>964</v>
       </c>
       <c r="C176" t="n">
-        <v>75693.83333333333</v>
+        <v>89634.79710144928</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Onalaska</t>
+          <t>Taholah</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>970</v>
+        <v>803</v>
       </c>
       <c r="C177" t="n">
-        <v>72044.72</v>
+        <v>82888.39999999999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Onion Creek</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
+          <t>Tahoma</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1150</v>
+      </c>
       <c r="C178" t="n">
-        <v>76119</v>
+        <v>94550.24571428572</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Orcas Island</t>
+          <t>Tenino</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1285</v>
+        <v>1078</v>
       </c>
       <c r="C179" t="n">
-        <v>74052.35714285714</v>
+        <v>70665.48387096774</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Orient</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>999</v>
+      </c>
       <c r="C180" t="n">
-        <v>63070.5</v>
+        <v>84824.12</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Orondo</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
+          <t>Tonasket</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>989</v>
+      </c>
       <c r="C181" t="n">
-        <v>55577.25</v>
+        <v>67519.80645161291</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Oroville</t>
+          <t>Toppenish</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="C182" t="n">
-        <v>68657.94117647059</v>
+        <v>74984.91578947369</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Orting</t>
+          <t>Toutle Lake</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1057</v>
+        <v>1091</v>
       </c>
       <c r="C183" t="n">
-        <v>82200.90566037736</v>
+        <v>74942.38888888889</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Othello</t>
+          <t>Trout Lake</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1004</v>
+        <v>1176</v>
       </c>
       <c r="C184" t="n">
-        <v>76333.51162790698</v>
+        <v>72777.88888888889</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>PRIDE Prep</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
+          <t>Tukwila</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>905</v>
+      </c>
       <c r="C185" t="n">
-        <v>47916.18518518518</v>
+        <v>87008.21621621621</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Palouse</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
+          <t>Tumwater</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1140</v>
+      </c>
       <c r="C186" t="n">
-        <v>69660.28571428571</v>
+        <v>83924.30872483221</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Pasco</t>
+          <t>University Place</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>987</v>
+        <v>1155</v>
       </c>
       <c r="C187" t="n">
-        <v>77127.07633587786</v>
+        <v>87628.60550458716</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Pateros</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>927</v>
+        <v>1001</v>
       </c>
       <c r="C188" t="n">
-        <v>79064.30769230769</v>
+        <v>79194.02925045704</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Paterson</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
+          <t>Vashon Island</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1197</v>
+      </c>
       <c r="C189" t="n">
-        <v>78718.5</v>
+        <v>71903.14893617021</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Pe Ell</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
+          <t>Wahkiakum</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>997</v>
+      </c>
       <c r="C190" t="n">
-        <v>77719.61538461539</v>
+        <v>62502.58823529412</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Peninsula</t>
+          <t>Wahluke</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1135</v>
+        <v>939</v>
       </c>
       <c r="C191" t="n">
-        <v>82913.5</v>
+        <v>73278.31666666667</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Pioneer</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
+          <t>Walla Walla</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1126</v>
+      </c>
       <c r="C192" t="n">
-        <v>74761.07142857143</v>
+        <v>74381.31782945736</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Pomeroy</t>
+          <t>Wapato</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1007</v>
+        <v>896</v>
       </c>
       <c r="C193" t="n">
-        <v>71862</v>
+        <v>80603.02499999999</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Port Angeles</t>
+          <t>Warden</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1048</v>
+        <v>977</v>
       </c>
       <c r="C194" t="n">
-        <v>82678.05813953489</v>
+        <v>72615.22222222222</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Port Townsend</t>
+          <t>Washougal</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1155</v>
+        <v>1081</v>
       </c>
       <c r="C195" t="n">
-        <v>76128.05555555556</v>
+        <v>81542.03448275862</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Prescott</t>
+          <t>Waterville</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C196" t="n">
-        <v>71967</v>
+        <v>63312.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Prosser</t>
+          <t>Wellpinit</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1014</v>
+        <v>834</v>
       </c>
       <c r="C197" t="n">
-        <v>77702.65714285715</v>
+        <v>85841.41176470589</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Pullman</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1200</v>
+        <v>1073</v>
       </c>
       <c r="C198" t="n">
-        <v>73997.04477611941</v>
+        <v>79671.39583333333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Puyallup</t>
+          <t>West Valley (Spo)</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C199" t="n">
-        <v>91953.35714285714</v>
+        <v>67000.46391752578</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Quilcene</t>
+          <t>West Valley (Yak)</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>952</v>
+        <v>1016</v>
       </c>
       <c r="C200" t="n">
-        <v>72115.09090909091</v>
+        <v>84908.36538461539</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Quileute Tribal</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr"/>
+          <t>White Pass</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>950</v>
+      </c>
       <c r="C201" t="n">
-        <v>78099.57142857143</v>
+        <v>75081.16666666667</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Quillayute Valley</t>
+          <t>White River</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>981</v>
+        <v>1028</v>
       </c>
       <c r="C202" t="n">
-        <v>71301.70370370371</v>
+        <v>83172.96666666666</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>White Salmon</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>945</v>
+        <v>1095</v>
       </c>
       <c r="C203" t="n">
-        <v>80546.32203389831</v>
+        <v>70157.05882352941</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Wilbur</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="C204" t="n">
-        <v>79170.33333333333</v>
+        <v>71092.66666666667</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Rainier Prep</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr"/>
+          <t>Winlock</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>957</v>
+      </c>
       <c r="C205" t="n">
-        <v>62515</v>
+        <v>75497.60869565218</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Wishram</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>993</v>
+        <v>903</v>
       </c>
       <c r="C206" t="n">
-        <v>78827.25</v>
+        <v>70032.60000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Reardan</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>994</v>
+        <v>1020</v>
       </c>
       <c r="C207" t="n">
-        <v>73648.83333333333</v>
+        <v>76084.64912280702</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Renton</t>
+          <t>Yakima</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>999</v>
+        <v>927</v>
       </c>
       <c r="C208" t="n">
-        <v>86721.72881355933</v>
+        <v>86729.04278074867</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Republic</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr"/>
+          <t>Yelm</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>981</v>
+      </c>
       <c r="C209" t="n">
-        <v>66073.9375</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>Richland</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>1145</v>
-      </c>
-      <c r="C210" t="n">
-        <v>83950.09477124183</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>Ridgefield</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>1146</v>
-      </c>
-      <c r="C211" t="n">
-        <v>77876.08333333333</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>Ritzville</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>985</v>
-      </c>
-      <c r="C212" t="n">
-        <v>78109.07142857143</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>Riverside</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C213" t="n">
-        <v>75479.22580645161</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>Riverview</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C214" t="n">
-        <v>89699.13253012048</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>Rochester</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>1101</v>
-      </c>
-      <c r="C215" t="n">
-        <v>73636.82142857143</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>Rosalia</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="n">
-        <v>68969.8</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>Royal</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>958</v>
-      </c>
-      <c r="C217" t="n">
-        <v>73285.65789473684</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>Saint John</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>San Juan Island</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1128</v>
-      </c>
-      <c r="C219" t="n">
-        <v>83634.15384615384</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>Seattle</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>1103</v>
-      </c>
-      <c r="C220" t="n">
-        <v>84796.65109034268</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>Sedro-Woolley</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>1104</v>
-      </c>
-      <c r="C221" t="n">
-        <v>86852.28828828828</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>Selah</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>1058</v>
-      </c>
-      <c r="C222" t="n">
-        <v>76075.33720930232</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>Selkirk</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C223" t="n">
-        <v>63658.2</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>Sequim</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>1136</v>
-      </c>
-      <c r="C224" t="n">
-        <v>82465.89393939394</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>Shelton</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C225" t="n">
-        <v>78774.64102564103</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>Shoreline</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C226" t="n">
-        <v>95997.6213592233</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>Skamania</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="n">
-        <v>55158.5</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>Skykomish</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="n">
-        <v>82768.8</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>Snohomish</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>1174</v>
-      </c>
-      <c r="C229" t="n">
-        <v>100287.8651162791</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>Snoqualmie Valley</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C230" t="n">
-        <v>84148.99280575539</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>Soap Lake</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>910</v>
-      </c>
-      <c r="C231" t="n">
-        <v>72980.16666666667</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>South Bend</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>1014</v>
-      </c>
-      <c r="C232" t="n">
-        <v>78757.14285714286</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>South Kitsap</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>985</v>
-      </c>
-      <c r="C233" t="n">
-        <v>89551.08673469388</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>South Whidbey</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>1083</v>
-      </c>
-      <c r="C234" t="n">
-        <v>93654.05</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>Southside</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="n">
-        <v>70497</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>Spokane</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>995</v>
-      </c>
-      <c r="C236" t="n">
-        <v>89246.97576736672</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>Spokane Int'l Acad</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="n">
-        <v>53381.4</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>Sprague</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="n">
-        <v>51865.71428571428</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>St. John</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="n">
-        <v>60233.11111111111</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>Stanwood-Camano</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>1104</v>
-      </c>
-      <c r="C240" t="n">
-        <v>96648.09375</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>Starbuck</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="n">
-        <v>68196</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>Steilacoom Hist.</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>1126</v>
-      </c>
-      <c r="C242" t="n">
-        <v>84311.07462686567</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>Steptoe</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="n">
-        <v>73108.5</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>Stevenson-Carson</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>1061</v>
-      </c>
-      <c r="C244" t="n">
-        <v>77063.81818181818</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>Sultan</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>1055</v>
-      </c>
-      <c r="C245" t="n">
-        <v>90180.73214285714</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>Summit Atlas</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="n">
-        <v>54827.68421052631</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>Summit Olympus</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="n">
-        <v>54277</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>Summit Sierra</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="n">
-        <v>59822</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>Summit Valley</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="n">
-        <v>57741.5</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>Sumner</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C250" t="n">
-        <v>87388.91219512196</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>Sunnyside</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>913</v>
-      </c>
-      <c r="C251" t="n">
-        <v>82104.39189189189</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>Suquamish Tribal</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="n">
-        <v>62988.44444444445</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>Tacoma</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>964</v>
-      </c>
-      <c r="C253" t="n">
-        <v>89634.79710144928</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>Taholah</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>803</v>
-      </c>
-      <c r="C254" t="n">
-        <v>82888.39999999999</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="inlineStr">
-        <is>
-          <t>Tahoma</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>1150</v>
-      </c>
-      <c r="C255" t="n">
-        <v>94550.24571428572</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="inlineStr">
-        <is>
-          <t>Tekoa</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="n">
-        <v>65049.4</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="inlineStr">
-        <is>
-          <t>Tenino</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>1078</v>
-      </c>
-      <c r="C257" t="n">
-        <v>70665.48387096774</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="inlineStr">
-        <is>
-          <t>Thorp</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="n">
-        <v>66271.33333333333</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="inlineStr">
-        <is>
-          <t>Toledo</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>999</v>
-      </c>
-      <c r="C259" t="n">
-        <v>84824.12</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>Tonasket</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>989</v>
-      </c>
-      <c r="C260" t="n">
-        <v>67519.80645161291</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="inlineStr">
-        <is>
-          <t>Toppenish</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>905</v>
-      </c>
-      <c r="C261" t="n">
-        <v>74984.91578947369</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="inlineStr">
-        <is>
-          <t>Touchet</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="n">
-        <v>71744.61538461539</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="inlineStr">
-        <is>
-          <t>Toutle Lake</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>1091</v>
-      </c>
-      <c r="C263" t="n">
-        <v>74942.38888888889</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>Trout Lake</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C264" t="n">
-        <v>72777.88888888889</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>Tukwila</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>905</v>
-      </c>
-      <c r="C265" t="n">
-        <v>87008.21621621621</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>Tumwater</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>1140</v>
-      </c>
-      <c r="C266" t="n">
-        <v>83924.30872483221</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="inlineStr">
-        <is>
-          <t>Unassociated</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>1115</v>
-      </c>
-      <c r="C267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="inlineStr">
-        <is>
-          <t>Union Gap</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr"/>
-      <c r="C268" t="n">
-        <v>65892.44444444444</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="inlineStr">
-        <is>
-          <t>University Place</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>1155</v>
-      </c>
-      <c r="C269" t="n">
-        <v>87628.60550458716</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="inlineStr">
-        <is>
-          <t>Valley</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="n">
-        <v>64662.57692307692</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C271" t="n">
-        <v>79194.02925045704</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="inlineStr">
-        <is>
-          <t>Vashon Island</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>1197</v>
-      </c>
-      <c r="C272" t="n">
-        <v>71903.14893617021</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="inlineStr">
-        <is>
-          <t>Wa He Lut Tribal</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="n">
-        <v>68156</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="inlineStr">
-        <is>
-          <t>Wahkiakum</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>997</v>
-      </c>
-      <c r="C274" t="n">
-        <v>62502.58823529412</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="inlineStr">
-        <is>
-          <t>Wahluke</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>939</v>
-      </c>
-      <c r="C275" t="n">
-        <v>73278.31666666667</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="inlineStr">
-        <is>
-          <t>Waitsburg</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr"/>
-      <c r="C276" t="n">
-        <v>79651.27272727272</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="inlineStr">
-        <is>
-          <t>Walla Walla</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>1126</v>
-      </c>
-      <c r="C277" t="n">
-        <v>74381.31782945736</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="inlineStr">
-        <is>
-          <t>Wapato</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>896</v>
-      </c>
-      <c r="C278" t="n">
-        <v>80603.02499999999</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="inlineStr">
-        <is>
-          <t>Warden</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>977</v>
-      </c>
-      <c r="C279" t="n">
-        <v>72615.22222222222</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="inlineStr">
-        <is>
-          <t>Washougal</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>1081</v>
-      </c>
-      <c r="C280" t="n">
-        <v>81542.03448275862</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>Washtucna</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr"/>
-      <c r="C281" t="n">
-        <v>75941.625</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="inlineStr">
-        <is>
-          <t>Waterville</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>888</v>
-      </c>
-      <c r="C282" t="n">
-        <v>63312.5</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="inlineStr">
-        <is>
-          <t>Wellpinit</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>834</v>
-      </c>
-      <c r="C283" t="n">
-        <v>85841.41176470589</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>1073</v>
-      </c>
-      <c r="C284" t="n">
-        <v>79671.39583333333</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="inlineStr">
-        <is>
-          <t>West Valley (Spo)</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C285" t="n">
-        <v>67000.46391752578</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="inlineStr">
-        <is>
-          <t>West Valley (Yak)</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C286" t="n">
-        <v>84908.36538461539</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="inlineStr">
-        <is>
-          <t>White Pass</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>950</v>
-      </c>
-      <c r="C287" t="n">
-        <v>75081.16666666667</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="inlineStr">
-        <is>
-          <t>White River</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C288" t="n">
-        <v>83172.96666666666</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="inlineStr">
-        <is>
-          <t>White Salmon</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="n">
-        <v>70157.05882352941</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="inlineStr">
-        <is>
-          <t>White Salmon Valley</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>1095</v>
-      </c>
-      <c r="C290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="inlineStr">
-        <is>
-          <t>Wilbur</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>986</v>
-      </c>
-      <c r="C291" t="n">
-        <v>71092.66666666667</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="inlineStr">
-        <is>
-          <t>Willapa Valley</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr"/>
-      <c r="C292" t="n">
-        <v>72870.42857142857</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="inlineStr">
-        <is>
-          <t>Wilson Creek</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="n">
-        <v>68499.88888888889</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="inlineStr">
-        <is>
-          <t>Winlock</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>957</v>
-      </c>
-      <c r="C294" t="n">
-        <v>75497.60869565218</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="inlineStr">
-        <is>
-          <t>Wishkah Valley</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr"/>
-      <c r="C295" t="n">
-        <v>73580.85714285714</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="inlineStr">
-        <is>
-          <t>Wishram</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>903</v>
-      </c>
-      <c r="C296" t="n">
-        <v>70032.60000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C297" t="n">
-        <v>76084.64912280702</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="inlineStr">
-        <is>
-          <t>Yakima</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>927</v>
-      </c>
-      <c r="C298" t="n">
-        <v>86729.04278074867</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="inlineStr">
-        <is>
-          <t>Yelm</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr"/>
-      <c r="C299" t="n">
         <v>75847.46212121213</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="inlineStr">
-        <is>
-          <t>Yelm Community</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>981</v>
-      </c>
-      <c r="C300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="inlineStr">
-        <is>
-          <t>Zillah</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr"/>
-      <c r="C301" t="n">
-        <v>76565.58064516129</v>
       </c>
     </row>
   </sheetData>

--- a/combined.xlsx
+++ b/combined.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,2679 +407,3636 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Anacortes</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1149</v>
-      </c>
+          <t>Almira</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>97004.68181818182</v>
+        <v>66277.16666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Anacortes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="C5" t="n">
-        <v>98069.94444444444</v>
+        <v>97004.68181818182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Asotin-Anatone</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1035</v>
+        <v>1140</v>
       </c>
       <c r="C6" t="n">
-        <v>72936.66666666667</v>
+        <v>98069.94444444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Asotin-Anatone</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947</v>
+        <v>1035</v>
       </c>
       <c r="C7" t="n">
-        <v>98183.28165374677</v>
+        <v>72936.66666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bainbridge</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267</v>
+        <v>947</v>
       </c>
       <c r="C8" t="n">
-        <v>85921.72727272728</v>
+        <v>98183.28165374677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Battle Ground</t>
+          <t>Bainbridge</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1129</v>
+        <v>1267</v>
       </c>
       <c r="C9" t="n">
-        <v>80003.29357798165</v>
+        <v>85921.72727272728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Bellevue</t>
+          <t>Battle Ground</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1273</v>
+        <v>1129</v>
       </c>
       <c r="C10" t="n">
-        <v>91583.06451612903</v>
+        <v>80003.29357798165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Bellingham</t>
+          <t>Bellevue</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1169</v>
+        <v>1273</v>
       </c>
       <c r="C11" t="n">
-        <v>81914.19713261649</v>
+        <v>91583.06451612903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Bethel</t>
+          <t>Bellingham</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1046</v>
+        <v>1169</v>
       </c>
       <c r="C12" t="n">
-        <v>76995.17841409691</v>
+        <v>81914.19713261649</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Blaine</t>
+          <t>Bethel</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135</v>
+        <v>1046</v>
       </c>
       <c r="C13" t="n">
-        <v>85511.80769230769</v>
+        <v>76995.17841409691</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bremerton</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1024</v>
-      </c>
+          <t>Bickleton</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>89494.55118110236</v>
+        <v>69152.375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Brewster</t>
+          <t>Blaine</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>890</v>
+        <v>1135</v>
       </c>
       <c r="C15" t="n">
-        <v>69024.88</v>
+        <v>85511.80769230769</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>932</v>
-      </c>
+          <t>Boistfort</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>71198.5925925926</v>
+        <v>48246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Burlington-Edison</t>
+          <t>Bremerton</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="C17" t="n">
-        <v>87945.53012048193</v>
+        <v>89494.55118110236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Camas</t>
+          <t>Brewster</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1182</v>
+        <v>890</v>
       </c>
       <c r="C18" t="n">
-        <v>85689.535</v>
+        <v>69024.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cape Flattery</t>
+          <t>Bridgeport</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1028</v>
+        <v>932</v>
       </c>
       <c r="C19" t="n">
-        <v>74721.05</v>
+        <v>71198.5925925926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Cascade</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1057</v>
-      </c>
+          <t>Brinnon</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>69241.22222222222</v>
+        <v>63464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cashmere</t>
+          <t>Burlington-Edison</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069</v>
+        <v>994</v>
       </c>
       <c r="C21" t="n">
-        <v>82226.97674418605</v>
+        <v>87945.53012048193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Castle Rock</t>
+          <t>Camas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>999</v>
+        <v>1182</v>
       </c>
       <c r="C22" t="n">
-        <v>71649.89999999999</v>
+        <v>85689.535</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Central Kitsap</t>
+          <t>Cape Flattery</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1145</v>
+        <v>1028</v>
       </c>
       <c r="C23" t="n">
-        <v>96549.6094890511</v>
+        <v>74721.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Central Valley</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1142</v>
-      </c>
+          <t>Carbonado</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>85352.7627118644</v>
+        <v>75148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Centralia</t>
+          <t>Cascade</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1018</v>
+        <v>1057</v>
       </c>
       <c r="C25" t="n">
-        <v>84166.9420289855</v>
+        <v>69241.22222222222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Chehalis</t>
+          <t>Cashmere</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="C26" t="n">
-        <v>86177.83333333333</v>
+        <v>82226.97674418605</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Cheney</t>
+          <t>Castle Rock</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1092</v>
+        <v>999</v>
       </c>
       <c r="C27" t="n">
-        <v>71898.16197183098</v>
+        <v>71649.89999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Chewelah</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1045</v>
-      </c>
+          <t>Centerville</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>75127</v>
+        <v>93540</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Chimacum</t>
+          <t>Central Kitsap</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1101</v>
+        <v>1145</v>
       </c>
       <c r="C29" t="n">
-        <v>72636.72</v>
+        <v>96549.6094890511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Clarkston</t>
+          <t>Central Valley</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1085</v>
+        <v>1142</v>
       </c>
       <c r="C30" t="n">
-        <v>85806.6129032258</v>
+        <v>85352.7627118644</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Cle Elum-Roslyn</t>
+          <t>Centralia</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1081</v>
+        <v>1018</v>
       </c>
       <c r="C31" t="n">
-        <v>63626.92307692308</v>
+        <v>84166.9420289855</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Clover Park</t>
+          <t>Chehalis</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1054</v>
+        <v>1091</v>
       </c>
       <c r="C32" t="n">
-        <v>88222.2072072072</v>
+        <v>86177.83333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Colfax</t>
+          <t>Cheney</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="C33" t="n">
-        <v>64535.61111111111</v>
+        <v>71898.16197183098</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>College Place</t>
+          <t>Chewelah</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="C34" t="n">
-        <v>68112.13333333333</v>
+        <v>75127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Colton</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1044</v>
-      </c>
+          <t>Chief Leschi Tribal</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>74406.44444444444</v>
+        <v>66293.85185185185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Columbia (Wal)</t>
+          <t>Chimacum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1057</v>
+        <v>1101</v>
       </c>
       <c r="C36" t="n">
-        <v>81437.63636363637</v>
+        <v>72636.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Colville</t>
+          <t>Clarkston</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1006</v>
+        <v>1085</v>
       </c>
       <c r="C37" t="n">
-        <v>77341.01923076923</v>
+        <v>85806.6129032258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Coulee-Hartline</t>
+          <t>Cle Elum-Roslyn</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1057</v>
+        <v>1081</v>
       </c>
       <c r="C38" t="n">
-        <v>47796.83333333334</v>
+        <v>63626.92307692308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Coupeville</t>
+          <t>Clover Park</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1004</v>
+        <v>1054</v>
       </c>
       <c r="C39" t="n">
-        <v>89897.74074074074</v>
+        <v>88222.2072072072</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Curlew</t>
+          <t>Colfax</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1043</v>
+        <v>1080</v>
       </c>
       <c r="C40" t="n">
-        <v>57367.36363636364</v>
+        <v>64535.61111111111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cusick</t>
+          <t>College Place</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>895</v>
+        <v>1037</v>
       </c>
       <c r="C41" t="n">
-        <v>60756.41666666666</v>
+        <v>68112.13333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Colton</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962</v>
+        <v>1044</v>
       </c>
       <c r="C42" t="n">
-        <v>68025.375</v>
+        <v>74406.44444444444</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Dayton</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1035</v>
-      </c>
+          <t>Columbia (Ste)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>67641.38888888889</v>
+        <v>62614.83333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Deer Park</t>
+          <t>Columbia (Wal)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C44" t="n">
-        <v>77768.56060606061</v>
+        <v>81437.63636363637</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>East Valley (Spo)</t>
+          <t>Colville</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C45" t="n">
-        <v>82436.41666666667</v>
+        <v>77341.01923076923</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>East Valley (Yak)</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1066</v>
-      </c>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>81084.90140845071</v>
+        <v>81037.57142857143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Eastmont</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1056</v>
-      </c>
+          <t>Conway</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>82602.39285714286</v>
+        <v>108898.8333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Eatonville</t>
+          <t>Coulee-Hartline</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="C48" t="n">
-        <v>76782.20370370371</v>
+        <v>47796.83333333334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Edmonds</t>
+          <t>Coupeville</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1129</v>
+        <v>1004</v>
       </c>
       <c r="C49" t="n">
-        <v>89397.07439824945</v>
+        <v>89897.74074074074</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ellensburg</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1107</v>
-      </c>
+          <t>Crescent</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>74097.85333333333</v>
+        <v>73516</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Elma</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1088</v>
-      </c>
+          <t>Creston</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>87594.15384615384</v>
+        <v>60930</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Enumclaw</t>
+          <t>Curlew</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="C52" t="n">
-        <v>88423.42391304347</v>
+        <v>57367.36363636364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Ephrata</t>
+          <t>Cusick</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1009</v>
+        <v>895</v>
       </c>
       <c r="C53" t="n">
-        <v>80652.15254237287</v>
+        <v>60756.41666666666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Everett</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1031</v>
-      </c>
+          <t>Darrington</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>107466.3848039216</v>
+        <v>91947.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Evergreen (Clark)</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1076</v>
+        <v>962</v>
       </c>
       <c r="C55" t="n">
-        <v>83793.30694444444</v>
+        <v>68025.375</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Federal Way</t>
+          <t>Dayton</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>934</v>
+        <v>1035</v>
       </c>
       <c r="C56" t="n">
-        <v>84720.11148086522</v>
+        <v>67641.38888888889</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Ferndale</t>
+          <t>Deer Park</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1117</v>
+        <v>1056</v>
       </c>
       <c r="C57" t="n">
-        <v>90355.06422018349</v>
+        <v>77768.56060606061</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Fife</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1097</v>
-      </c>
+          <t>Dieringer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>89722.6626506024</v>
+        <v>99022.73333333334</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Finley</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>954</v>
-      </c>
+          <t>ESD 112</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>85126.30769230769</v>
+        <v>59151.73809523809</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Franklin Pierce</t>
+          <t>East Valley (Spo)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>914</v>
+        <v>1008</v>
       </c>
       <c r="C60" t="n">
-        <v>83493.28735632185</v>
+        <v>82436.41666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>East Valley (Yak)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="C61" t="n">
-        <v>66346.06896551725</v>
+        <v>81084.90140845071</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Goldendale</t>
+          <t>Eastmont</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1130</v>
+        <v>1056</v>
       </c>
       <c r="C62" t="n">
-        <v>71497.41666666667</v>
+        <v>82602.39285714286</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Grand Coulee Dam</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>951</v>
-      </c>
+          <t>Easton</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>63743.13043478261</v>
+        <v>62410.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Grandview</t>
+          <t>Eatonville</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>903</v>
+        <v>1047</v>
       </c>
       <c r="C64" t="n">
-        <v>75837.16666666667</v>
+        <v>76782.20370370371</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Granger</t>
+          <t>Edmonds</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>938</v>
+        <v>1129</v>
       </c>
       <c r="C65" t="n">
-        <v>84947.10526315789</v>
+        <v>89397.07439824945</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Granite Falls</t>
+          <t>Ellensburg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="C66" t="n">
-        <v>92116.77551020408</v>
+        <v>74097.85333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Highland</t>
+          <t>Elma</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>925</v>
+        <v>1088</v>
       </c>
       <c r="C67" t="n">
-        <v>80937.14285714286</v>
+        <v>87594.15384615384</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Highline</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>947</v>
-      </c>
+          <t>Endicott</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>86321.36363636363</v>
+        <v>65694.42857142857</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Hockinson</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1091</v>
-      </c>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>77484.36</v>
+        <v>79215.09090909091</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Hoquiam</t>
+          <t>Enumclaw</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="C70" t="n">
-        <v>84651.43902439025</v>
+        <v>88423.42391304347</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Inchelium</t>
+          <t>Ephrata</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>846</v>
+        <v>1009</v>
       </c>
       <c r="C71" t="n">
-        <v>77006.09090909091</v>
+        <v>80652.15254237287</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Issaquah</t>
+          <t>Everett</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1270</v>
+        <v>1031</v>
       </c>
       <c r="C72" t="n">
-        <v>93727.46506024097</v>
+        <v>107466.3848039216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Kalama</t>
+          <t>Evergreen (Clark)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1102</v>
+        <v>1076</v>
       </c>
       <c r="C73" t="n">
-        <v>75589.16666666667</v>
+        <v>83793.30694444444</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Kelso</t>
+          <t>Federal Way</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1016</v>
+        <v>934</v>
       </c>
       <c r="C74" t="n">
-        <v>72694.62385321101</v>
+        <v>84720.11148086522</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Kennewick</t>
+          <t>Ferndale</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1054</v>
+        <v>1117</v>
       </c>
       <c r="C75" t="n">
-        <v>85505.72881355933</v>
+        <v>90355.06422018349</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Kent</t>
+          <t>Fife</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1007</v>
+        <v>1097</v>
       </c>
       <c r="C76" t="n">
-        <v>84460.24193548386</v>
+        <v>89722.6626506024</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Kettle Falls</t>
+          <t>Finley</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1116</v>
+        <v>954</v>
       </c>
       <c r="C77" t="n">
-        <v>74731.42857142857</v>
+        <v>85126.30769230769</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Kiona-Benton City</t>
+          <t>Franklin Pierce</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="C78" t="n">
-        <v>84956.89999999999</v>
+        <v>83493.28735632185</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Kittitas</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>968</v>
+        <v>1115</v>
       </c>
       <c r="C79" t="n">
-        <v>71547.86363636363</v>
+        <v>66346.06896551725</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>La Conner</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1070</v>
-      </c>
+          <t>Garfield</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>90610</v>
+        <v>66796.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Lacenter</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1033</v>
-      </c>
+          <t>Glenwood</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>76775.51282051283</v>
+        <v>68952</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Lake Chelan</t>
+          <t>Goldendale</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>964</v>
+        <v>1130</v>
       </c>
       <c r="C82" t="n">
-        <v>80185.97826086957</v>
+        <v>71497.41666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Lake Stevens</t>
+          <t>Grand Coulee Dam</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1139</v>
+        <v>951</v>
       </c>
       <c r="C83" t="n">
-        <v>97158.78494623656</v>
+        <v>63743.13043478261</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Lake Washington</t>
+          <t>Grandview</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1259</v>
+        <v>903</v>
       </c>
       <c r="C84" t="n">
-        <v>87408.32385466035</v>
+        <v>75837.16666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lakewood</t>
+          <t>Granger</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1060</v>
+        <v>938</v>
       </c>
       <c r="C85" t="n">
-        <v>90627.64814814815</v>
+        <v>84947.10526315789</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Granite Falls</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C86" t="n">
-        <v>84189.92857142857</v>
+        <v>92116.77551020408</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Longview</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1078</v>
-      </c>
+          <t>Grapeview</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>78267.67424242424</v>
+        <v>67100.33333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lyle</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>866</v>
-      </c>
+          <t>Green Dot Destiny</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>56195.5</v>
+        <v>63946.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lynden</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1111</v>
-      </c>
+          <t>Green Dot Excel</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>82627.10769230769</v>
+        <v>63532.92307692308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Mabton</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>885</v>
-      </c>
+          <t>Green Dot Rainier</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>71505.95</v>
+        <v>55501.61538461538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Manson</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>923</v>
-      </c>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>75870.10000000001</v>
+        <v>75631.77777777778</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Mary Walker</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>975</v>
-      </c>
+          <t>Harrington</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>75033.47368421052</v>
+        <v>58937.44444444445</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Marysville</t>
+          <t>Highland</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="C93" t="n">
-        <v>102265.7523809524</v>
+        <v>80937.14285714286</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Mead</t>
+          <t>Highline</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1109</v>
+        <v>947</v>
       </c>
       <c r="C94" t="n">
-        <v>88774.76422764227</v>
+        <v>86321.36363636363</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Medical Lake</t>
+          <t>Hockinson</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1120</v>
+        <v>1091</v>
       </c>
       <c r="C95" t="n">
-        <v>76985.32653061225</v>
+        <v>77484.36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Mercer Island</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1316</v>
-      </c>
+          <t>Hood Canal</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>93696.79508196721</v>
+        <v>70381</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Meridian</t>
+          <t>Hoquiam</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1116</v>
+        <v>1067</v>
       </c>
       <c r="C97" t="n">
-        <v>80670.4054054054</v>
+        <v>84651.43902439025</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Methow Valley</t>
+          <t>Inchelium</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1128</v>
+        <v>846</v>
       </c>
       <c r="C98" t="n">
-        <v>61129.66666666666</v>
+        <v>77006.09090909091</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Monroe</t>
+          <t>Issaquah</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1084</v>
+        <v>1270</v>
       </c>
       <c r="C99" t="n">
-        <v>89931.5294117647</v>
+        <v>93727.46506024097</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Montesano</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1045</v>
-      </c>
+          <t>Kahlotus</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>90575.79411764706</v>
+        <v>71795.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Moses Lake</t>
+          <t>Kalama</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>961</v>
+        <v>1102</v>
       </c>
       <c r="C101" t="n">
-        <v>87724.80769230769</v>
+        <v>75589.16666666667</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Mossyrock</t>
+          <t>Kelso</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>956</v>
+        <v>1016</v>
       </c>
       <c r="C102" t="n">
-        <v>86010.8</v>
+        <v>72694.62385321101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Mount Adams</t>
+          <t>Kennewick</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>990</v>
+        <v>1054</v>
       </c>
       <c r="C103" t="n">
-        <v>76754.64285714286</v>
+        <v>85505.72881355933</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Mount Baker</t>
+          <t>Kent</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1076</v>
+        <v>1007</v>
       </c>
       <c r="C104" t="n">
-        <v>88024.3829787234</v>
+        <v>84460.24193548386</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Mt Vernon</t>
+          <t>Kettle Falls</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1033</v>
+        <v>1116</v>
       </c>
       <c r="C105" t="n">
-        <v>82926.31952662722</v>
+        <v>74731.42857142857</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Mukilteo</t>
+          <t>Kiona-Benton City</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1154</v>
+        <v>931</v>
       </c>
       <c r="C106" t="n">
-        <v>99805.66666666667</v>
+        <v>84956.89999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Naches Valley</t>
+          <t>Kittitas</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="C107" t="n">
-        <v>71116.7</v>
+        <v>71547.86363636363</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Napavine</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1020</v>
-      </c>
+          <t>Klickitat</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>70947.04347826086</v>
+        <v>65581</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Naselle-Grays R.</t>
+          <t>La Conner</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1008</v>
+        <v>1070</v>
       </c>
       <c r="C109" t="n">
-        <v>76456.88235294117</v>
+        <v>90610</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Newport</t>
+          <t>Lacenter</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1101</v>
+        <v>1033</v>
       </c>
       <c r="C110" t="n">
-        <v>74007.51515151515</v>
+        <v>76775.51282051283</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nine Mile Falls</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1085</v>
-      </c>
+          <t>Lacrosse</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>75538.63636363637</v>
+        <v>68214.71428571429</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Nooksack Valley</t>
+          <t>Lake Chelan</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1019</v>
+        <v>964</v>
       </c>
       <c r="C112" t="n">
-        <v>80131.83333333333</v>
+        <v>80185.97826086957</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>North Beach</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>915</v>
-      </c>
+          <t>Lake Quinault</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>63963.1875</v>
+        <v>68435</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>North Franklin</t>
+          <t>Lake Stevens</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>929</v>
+        <v>1139</v>
       </c>
       <c r="C114" t="n">
-        <v>81265.1875</v>
+        <v>97158.78494623656</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>North Kitsap</t>
+          <t>Lake Washington</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1143</v>
+        <v>1259</v>
       </c>
       <c r="C115" t="n">
-        <v>88934.8</v>
+        <v>87408.32385466035</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>North Mason</t>
+          <t>Lakewood</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1022</v>
+        <v>1060</v>
       </c>
       <c r="C116" t="n">
-        <v>83878.5</v>
+        <v>90627.64814814815</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>North Thurston</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1084</v>
-      </c>
+          <t>Lamont</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>81185.42296918767</v>
+        <v>48322.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Northshore</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1214</v>
+        <v>1076</v>
       </c>
       <c r="C118" t="n">
-        <v>98325.4465116279</v>
+        <v>84189.92857142857</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Oak Harbor</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1113</v>
-      </c>
+          <t>Lind</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>90054.10852713179</v>
+        <v>72154.42857142857</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Oakesdale</t>
+          <t>Longview</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1048</v>
+        <v>1078</v>
       </c>
       <c r="C120" t="n">
-        <v>71763.57142857143</v>
+        <v>78267.67424242424</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Ocean Beach</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1070</v>
-      </c>
+          <t>Loon Lake</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>70176.96296296296</v>
+        <v>32479.75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Ocosta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1110</v>
-      </c>
+          <t>Lopez Island</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>85015.27777777778</v>
+        <v>67720.41666666667</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>966</v>
-      </c>
+          <t>Lummi Tribal</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>74351.03703703704</v>
+        <v>64241.73684210526</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Olympia</t>
+          <t>Lyle</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1196</v>
+        <v>866</v>
       </c>
       <c r="C124" t="n">
-        <v>74368.97983870968</v>
+        <v>56195.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Omak</t>
+          <t>Lynden</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1003</v>
+        <v>1111</v>
       </c>
       <c r="C125" t="n">
-        <v>75693.83333333333</v>
+        <v>82627.10769230769</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Onalaska</t>
+          <t>Mabton</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>970</v>
+        <v>885</v>
       </c>
       <c r="C126" t="n">
-        <v>72044.72</v>
+        <v>71505.95</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Orcas Island</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1285</v>
-      </c>
+          <t>Mansfield</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>74052.35714285714</v>
+        <v>70830.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Oroville</t>
+          <t>Manson</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C128" t="n">
-        <v>68657.94117647059</v>
+        <v>75870.10000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Orting</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1057</v>
-      </c>
+          <t>Mary M. Knight</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>82200.90566037736</v>
+        <v>57203.14285714286</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Othello</t>
+          <t>Mary Walker</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="C130" t="n">
-        <v>76333.51162790698</v>
+        <v>75033.47368421052</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pasco</t>
+          <t>Marysville</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>987</v>
+        <v>954</v>
       </c>
       <c r="C131" t="n">
-        <v>77127.07633587786</v>
+        <v>102265.7523809524</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Pateros</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>927</v>
-      </c>
+          <t>McCleary</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>79064.30769230769</v>
+        <v>52108.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Peninsula</t>
+          <t>Mead</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1135</v>
+        <v>1109</v>
       </c>
       <c r="C133" t="n">
-        <v>82913.5</v>
+        <v>88774.76422764227</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Pomeroy</t>
+          <t>Medical Lake</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1007</v>
+        <v>1120</v>
       </c>
       <c r="C134" t="n">
-        <v>71862</v>
+        <v>76985.32653061225</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Port Angeles</t>
+          <t>Mercer Island</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1048</v>
+        <v>1316</v>
       </c>
       <c r="C135" t="n">
-        <v>82678.05813953489</v>
+        <v>93696.79508196721</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Port Townsend</t>
+          <t>Meridian</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1155</v>
+        <v>1116</v>
       </c>
       <c r="C136" t="n">
-        <v>76128.05555555556</v>
+        <v>80670.4054054054</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Prescott</t>
+          <t>Methow Valley</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>891</v>
+        <v>1128</v>
       </c>
       <c r="C137" t="n">
-        <v>71967</v>
+        <v>61129.66666666666</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Prosser</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>1014</v>
-      </c>
+          <t>Mill A</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>77702.65714285715</v>
+        <v>59665.1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Pullman</t>
+          <t>Monroe</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1200</v>
+        <v>1084</v>
       </c>
       <c r="C139" t="n">
-        <v>73997.04477611941</v>
+        <v>89931.5294117647</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Puyallup</t>
+          <t>Montesano</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1093</v>
+        <v>1045</v>
       </c>
       <c r="C140" t="n">
-        <v>91953.35714285714</v>
+        <v>90575.79411764706</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Quilcene</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>952</v>
-      </c>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>72115.09090909091</v>
+        <v>58555.72727272727</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Quillayute Valley</t>
+          <t>Moses Lake</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>981</v>
+        <v>961</v>
       </c>
       <c r="C142" t="n">
-        <v>71301.70370370371</v>
+        <v>87724.80769230769</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Mossyrock</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="C143" t="n">
-        <v>80546.32203389831</v>
+        <v>86010.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Mount Adams</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="C144" t="n">
-        <v>79170.33333333333</v>
+        <v>76754.64285714286</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Mount Baker</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>993</v>
+        <v>1076</v>
       </c>
       <c r="C145" t="n">
-        <v>78827.25</v>
+        <v>88024.3829787234</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Reardan</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>994</v>
-      </c>
+          <t>Mount Pleasant</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>73648.83333333333</v>
+        <v>55568</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Renton</t>
+          <t>Mt Vernon</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>999</v>
+        <v>1033</v>
       </c>
       <c r="C147" t="n">
-        <v>86721.72881355933</v>
+        <v>82926.31952662722</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Richland</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>1145</v>
-      </c>
+          <t>Muckleshoot Tribal</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>83950.09477124183</v>
+        <v>85221.03448275862</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Ridgefield</t>
+          <t>Mukilteo</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="C149" t="n">
-        <v>77876.08333333333</v>
+        <v>99805.66666666667</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Ritzville</t>
+          <t>Naches Valley</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="C150" t="n">
-        <v>78109.07142857143</v>
+        <v>71116.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Riverside</t>
+          <t>Napavine</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="C151" t="n">
-        <v>75479.22580645161</v>
+        <v>70947.04347826086</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Riverview</t>
+          <t>Naselle-Grays R.</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1167</v>
+        <v>1008</v>
       </c>
       <c r="C152" t="n">
-        <v>89699.13253012048</v>
+        <v>76456.88235294117</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Rochester</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>1101</v>
-      </c>
+          <t>Nespelem</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>73636.82142857143</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Royal</t>
+          <t>Newport</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>958</v>
+        <v>1101</v>
       </c>
       <c r="C154" t="n">
-        <v>73285.65789473684</v>
+        <v>74007.51515151515</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>San Juan Island</t>
+          <t>Nine Mile Falls</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1128</v>
+        <v>1085</v>
       </c>
       <c r="C155" t="n">
-        <v>83634.15384615384</v>
+        <v>75538.63636363637</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Nooksack Valley</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1103</v>
+        <v>1019</v>
       </c>
       <c r="C156" t="n">
-        <v>84796.65109034268</v>
+        <v>80131.83333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Sedro-Woolley</t>
+          <t>North Beach</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1104</v>
+        <v>915</v>
       </c>
       <c r="C157" t="n">
-        <v>86852.28828828828</v>
+        <v>63963.1875</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Selah</t>
+          <t>North Franklin</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1058</v>
+        <v>929</v>
       </c>
       <c r="C158" t="n">
-        <v>76075.33720930232</v>
+        <v>81265.1875</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Selkirk</t>
+          <t>North Kitsap</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1005</v>
+        <v>1143</v>
       </c>
       <c r="C159" t="n">
-        <v>63658.2</v>
+        <v>88934.8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Sequim</t>
+          <t>North Mason</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1136</v>
+        <v>1022</v>
       </c>
       <c r="C160" t="n">
-        <v>82465.89393939394</v>
+        <v>83878.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Shelton</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>1035</v>
-      </c>
+          <t>North River</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>78774.64102564103</v>
+        <v>81988.83333333333</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Shoreline</t>
+          <t>North Thurston</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1167</v>
+        <v>1084</v>
       </c>
       <c r="C162" t="n">
-        <v>95997.6213592233</v>
+        <v>81185.42296918767</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Snohomish</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1174</v>
-      </c>
+          <t>Northport</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>100287.8651162791</v>
+        <v>65752.89999999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Snoqualmie Valley</t>
+          <t>Northshore</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1151</v>
+        <v>1214</v>
       </c>
       <c r="C164" t="n">
-        <v>84148.99280575539</v>
+        <v>98325.4465116279</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Soap Lake</t>
+          <t>Oak Harbor</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>910</v>
+        <v>1113</v>
       </c>
       <c r="C165" t="n">
-        <v>72980.16666666667</v>
+        <v>90054.10852713179</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>South Bend</t>
+          <t>Oakesdale</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="C166" t="n">
-        <v>78757.14285714286</v>
+        <v>71763.57142857143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>South Kitsap</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>985</v>
-      </c>
+          <t>Oakville</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>89551.08673469388</v>
+        <v>61848.7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>South Whidbey</t>
+          <t>Ocean Beach</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="C168" t="n">
-        <v>93654.05</v>
+        <v>70176.96296296296</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Spokane</t>
+          <t>Ocosta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>995</v>
+        <v>1110</v>
       </c>
       <c r="C169" t="n">
-        <v>89246.97576736672</v>
+        <v>85015.27777777778</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Stanwood-Camano</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1104</v>
-      </c>
+          <t>Odessa</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>96648.09375</v>
+        <v>72138.30769230769</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Steilacoom Hist.</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1126</v>
+        <v>966</v>
       </c>
       <c r="C171" t="n">
-        <v>84311.07462686567</v>
+        <v>74351.03703703704</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Stevenson-Carson</t>
+          <t>Olympia</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1061</v>
+        <v>1196</v>
       </c>
       <c r="C172" t="n">
-        <v>77063.81818181818</v>
+        <v>74368.97983870968</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Sultan</t>
+          <t>Omak</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1055</v>
+        <v>1003</v>
       </c>
       <c r="C173" t="n">
-        <v>90180.73214285714</v>
+        <v>75693.83333333333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Sumner</t>
+          <t>Onalaska</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1090</v>
+        <v>970</v>
       </c>
       <c r="C174" t="n">
-        <v>87388.91219512196</v>
+        <v>72044.72</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Sunnyside</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>913</v>
-      </c>
+          <t>Onion Creek</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>82104.39189189189</v>
+        <v>76119</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Tacoma</t>
+          <t>Orcas Island</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>964</v>
+        <v>1285</v>
       </c>
       <c r="C176" t="n">
-        <v>89634.79710144928</v>
+        <v>74052.35714285714</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Taholah</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>803</v>
-      </c>
+          <t>Orient</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>82888.39999999999</v>
+        <v>63070.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Tahoma</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1150</v>
-      </c>
+          <t>Orondo</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>94550.24571428572</v>
+        <v>55577.25</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Tenino</t>
+          <t>Oroville</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1078</v>
+        <v>929</v>
       </c>
       <c r="C179" t="n">
-        <v>70665.48387096774</v>
+        <v>68657.94117647059</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Orting</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>999</v>
+        <v>1057</v>
       </c>
       <c r="C180" t="n">
-        <v>84824.12</v>
+        <v>82200.90566037736</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Tonasket</t>
+          <t>Othello</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="C181" t="n">
-        <v>67519.80645161291</v>
+        <v>76333.51162790698</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Toppenish</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>905</v>
-      </c>
+          <t>PRIDE Prep</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>74984.91578947369</v>
+        <v>47916.18518518518</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Toutle Lake</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>1091</v>
-      </c>
+          <t>Palouse</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>74942.38888888889</v>
+        <v>69660.28571428571</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Trout Lake</t>
+          <t>Pasco</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1176</v>
+        <v>987</v>
       </c>
       <c r="C184" t="n">
-        <v>72777.88888888889</v>
+        <v>77127.07633587786</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Tukwila</t>
+          <t>Pateros</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="C185" t="n">
-        <v>87008.21621621621</v>
+        <v>79064.30769230769</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Tumwater</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1140</v>
-      </c>
+          <t>Paterson</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>83924.30872483221</v>
+        <v>78718.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>University Place</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>1155</v>
-      </c>
+          <t>Pe Ell</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>87628.60550458716</v>
+        <v>77719.61538461539</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Peninsula</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1001</v>
+        <v>1135</v>
       </c>
       <c r="C188" t="n">
-        <v>79194.02925045704</v>
+        <v>82913.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Vashon Island</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>1197</v>
-      </c>
+          <t>Pioneer</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>71903.14893617021</v>
+        <v>74761.07142857143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Wahkiakum</t>
+          <t>Pomeroy</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="C190" t="n">
-        <v>62502.58823529412</v>
+        <v>71862</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Wahluke</t>
+          <t>Port Angeles</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>939</v>
+        <v>1048</v>
       </c>
       <c r="C191" t="n">
-        <v>73278.31666666667</v>
+        <v>82678.05813953489</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Walla Walla</t>
+          <t>Port Townsend</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1126</v>
+        <v>1155</v>
       </c>
       <c r="C192" t="n">
-        <v>74381.31782945736</v>
+        <v>76128.05555555556</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Wapato</t>
+          <t>Prescott</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C193" t="n">
-        <v>80603.02499999999</v>
+        <v>71967</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Warden</t>
+          <t>Prosser</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>977</v>
+        <v>1014</v>
       </c>
       <c r="C194" t="n">
-        <v>72615.22222222222</v>
+        <v>77702.65714285715</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Washougal</t>
+          <t>Pullman</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="C195" t="n">
-        <v>81542.03448275862</v>
+        <v>73997.04477611941</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Waterville</t>
+          <t>Puyallup</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>888</v>
+        <v>1093</v>
       </c>
       <c r="C196" t="n">
-        <v>63312.5</v>
+        <v>91953.35714285714</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Wellpinit</t>
+          <t>Quilcene</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>834</v>
+        <v>952</v>
       </c>
       <c r="C197" t="n">
-        <v>85841.41176470589</v>
+        <v>72115.09090909091</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>1073</v>
-      </c>
+          <t>Quileute Tribal</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>79671.39583333333</v>
+        <v>78099.57142857143</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>West Valley (Spo)</t>
+          <t>Quillayute Valley</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1090</v>
+        <v>981</v>
       </c>
       <c r="C199" t="n">
-        <v>67000.46391752578</v>
+        <v>71301.70370370371</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>West Valley (Yak)</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1016</v>
+        <v>945</v>
       </c>
       <c r="C200" t="n">
-        <v>84908.36538461539</v>
+        <v>80546.32203389831</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>White Pass</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="C201" t="n">
-        <v>75081.16666666667</v>
+        <v>79170.33333333333</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>White River</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>1028</v>
-      </c>
+          <t>Rainier Prep</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>83172.96666666666</v>
+        <v>62515</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>White Salmon</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1095</v>
+        <v>993</v>
       </c>
       <c r="C203" t="n">
-        <v>70157.05882352941</v>
+        <v>78827.25</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Wilbur</t>
+          <t>Reardan</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="C204" t="n">
-        <v>71092.66666666667</v>
+        <v>73648.83333333333</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Winlock</t>
+          <t>Renton</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="C205" t="n">
-        <v>75497.60869565218</v>
+        <v>86721.72881355933</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Wishram</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>903</v>
-      </c>
+          <t>Republic</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>70032.60000000001</v>
+        <v>66073.9375</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Woodland</t>
+          <t>Richland</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1020</v>
+        <v>1145</v>
       </c>
       <c r="C207" t="n">
-        <v>76084.64912280702</v>
+        <v>83950.09477124183</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Yakima</t>
+          <t>Ridgefield</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>927</v>
+        <v>1146</v>
       </c>
       <c r="C208" t="n">
-        <v>86729.04278074867</v>
+        <v>77876.08333333333</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
+          <t>Ritzville</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>985</v>
+      </c>
+      <c r="C209" t="n">
+        <v>78109.07142857143</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>Riverside</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C210" t="n">
+        <v>75479.22580645161</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>Riverview</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C211" t="n">
+        <v>89699.13253012048</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>Rochester</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C212" t="n">
+        <v>73636.82142857143</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>Rosalia</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="n">
+        <v>68969.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>Royal</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>958</v>
+      </c>
+      <c r="C214" t="n">
+        <v>73285.65789473684</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>Saint John</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>San Juan Island</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C216" t="n">
+        <v>83634.15384615384</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C217" t="n">
+        <v>84796.65109034268</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>Sedro-Woolley</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1104</v>
+      </c>
+      <c r="C218" t="n">
+        <v>86852.28828828828</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>Selah</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C219" t="n">
+        <v>76075.33720930232</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>Selkirk</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C220" t="n">
+        <v>63658.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>Sequim</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1136</v>
+      </c>
+      <c r="C221" t="n">
+        <v>82465.89393939394</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>Shelton</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C222" t="n">
+        <v>78774.64102564103</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>Shoreline</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C223" t="n">
+        <v>95997.6213592233</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>Skamania</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>55158.5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>Skykomish</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="n">
+        <v>82768.8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>Snohomish</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C226" t="n">
+        <v>100287.8651162791</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>Snoqualmie Valley</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C227" t="n">
+        <v>84148.99280575539</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>Soap Lake</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>910</v>
+      </c>
+      <c r="C228" t="n">
+        <v>72980.16666666667</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>South Bend</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C229" t="n">
+        <v>78757.14285714286</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>South Kitsap</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>985</v>
+      </c>
+      <c r="C230" t="n">
+        <v>89551.08673469388</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>South Whidbey</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C231" t="n">
+        <v>93654.05</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>Southside</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>70497</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>Spokane</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>995</v>
+      </c>
+      <c r="C233" t="n">
+        <v>89246.97576736672</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>Spokane Int'l Acad</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>53381.4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>Sprague</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>51865.71428571428</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>St. John</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>60233.11111111111</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>Stanwood-Camano</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1104</v>
+      </c>
+      <c r="C237" t="n">
+        <v>96648.09375</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>Starbuck</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>68196</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>Steilacoom Hist.</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C239" t="n">
+        <v>84311.07462686567</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>Steptoe</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="n">
+        <v>73108.5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>Stevenson-Carson</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C241" t="n">
+        <v>77063.81818181818</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>Sultan</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C242" t="n">
+        <v>90180.73214285714</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>Summit Atlas</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="n">
+        <v>54827.68421052631</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>Summit Olympus</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="n">
+        <v>54277</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>Summit Sierra</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="n">
+        <v>59822</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>Summit Valley</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="n">
+        <v>57741.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>Sumner</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C247" t="n">
+        <v>87388.91219512196</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>Sunnyside</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>913</v>
+      </c>
+      <c r="C248" t="n">
+        <v>82104.39189189189</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>Suquamish Tribal</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="n">
+        <v>62988.44444444445</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>Tacoma</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>964</v>
+      </c>
+      <c r="C250" t="n">
+        <v>89634.79710144928</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>Taholah</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>803</v>
+      </c>
+      <c r="C251" t="n">
+        <v>82888.39999999999</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>Tahoma</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C252" t="n">
+        <v>94550.24571428572</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>Tekoa</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="n">
+        <v>65049.4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>Tenino</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C254" t="n">
+        <v>70665.48387096774</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>Thorp</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>66271.33333333333</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>999</v>
+      </c>
+      <c r="C256" t="n">
+        <v>84824.12</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>Tonasket</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>989</v>
+      </c>
+      <c r="C257" t="n">
+        <v>67519.80645161291</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>Toppenish</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>905</v>
+      </c>
+      <c r="C258" t="n">
+        <v>74984.91578947369</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>Touchet</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>71744.61538461539</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>Toutle Lake</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C260" t="n">
+        <v>74942.38888888889</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>Trout Lake</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C261" t="n">
+        <v>72777.88888888889</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>Tukwila</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>905</v>
+      </c>
+      <c r="C262" t="n">
+        <v>87008.21621621621</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>Tumwater</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C263" t="n">
+        <v>83924.30872483221</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>Unassociated</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1115</v>
+      </c>
+      <c r="C264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>Union Gap</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>65892.44444444444</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>University Place</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C266" t="n">
+        <v>87628.60550458716</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>Valley</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="n">
+        <v>64662.57692307692</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C268" t="n">
+        <v>79194.02925045704</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>Vashon Island</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C269" t="n">
+        <v>71903.14893617021</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>Wa He Lut Tribal</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="n">
+        <v>68156</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>Wahkiakum</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>997</v>
+      </c>
+      <c r="C271" t="n">
+        <v>62502.58823529412</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>Wahluke</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>939</v>
+      </c>
+      <c r="C272" t="n">
+        <v>73278.31666666667</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>Waitsburg</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="n">
+        <v>79651.27272727272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>Walla Walla</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C274" t="n">
+        <v>74381.31782945736</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>Wapato</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>896</v>
+      </c>
+      <c r="C275" t="n">
+        <v>80603.02499999999</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>Warden</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>977</v>
+      </c>
+      <c r="C276" t="n">
+        <v>72615.22222222222</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>Washougal</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C277" t="n">
+        <v>81542.03448275862</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>Washtucna</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="n">
+        <v>75941.625</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>Waterville</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>888</v>
+      </c>
+      <c r="C279" t="n">
+        <v>63312.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>Wellpinit</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>834</v>
+      </c>
+      <c r="C280" t="n">
+        <v>85841.41176470589</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C281" t="n">
+        <v>79671.39583333333</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>West Valley (Spo)</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C282" t="n">
+        <v>67000.46391752578</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>West Valley (Yak)</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C283" t="n">
+        <v>84908.36538461539</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>White Pass</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>950</v>
+      </c>
+      <c r="C284" t="n">
+        <v>75081.16666666667</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>White River</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C285" t="n">
+        <v>83172.96666666666</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>White Salmon</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1095</v>
+      </c>
+      <c r="C286" t="n">
+        <v>70157.05882352941</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>Wilbur</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>986</v>
+      </c>
+      <c r="C287" t="n">
+        <v>71092.66666666667</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>Willapa Valley</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="n">
+        <v>72870.42857142857</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>Wilson Creek</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="n">
+        <v>68499.88888888889</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>Winlock</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>957</v>
+      </c>
+      <c r="C290" t="n">
+        <v>75497.60869565218</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>Wishkah Valley</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="n">
+        <v>73580.85714285714</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>Wishram</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>903</v>
+      </c>
+      <c r="C292" t="n">
+        <v>70032.60000000001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>Woodland</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C293" t="n">
+        <v>76084.64912280702</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>Yakima</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>927</v>
+      </c>
+      <c r="C294" t="n">
+        <v>86729.04278074867</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
           <t>Yelm</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B295" t="n">
         <v>981</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C295" t="n">
         <v>75847.46212121213</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>Zillah</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="n">
+        <v>76565.58064516129</v>
       </c>
     </row>
   </sheetData>

--- a/combined.xlsx
+++ b/combined.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,3636 +407,2679 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almira</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Anacortes</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1149</v>
+      </c>
       <c r="C4" t="n">
-        <v>66277.16666666667</v>
+        <v>97004.68181818182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Anacortes</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C5" t="n">
-        <v>97004.68181818182</v>
+        <v>98069.94444444444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Asotin-Anatone</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140</v>
+        <v>1035</v>
       </c>
       <c r="C6" t="n">
-        <v>98069.94444444444</v>
+        <v>72936.66666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Asotin-Anatone</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1035</v>
+        <v>947</v>
       </c>
       <c r="C7" t="n">
-        <v>72936.66666666667</v>
+        <v>98183.28165374677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Bainbridge</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>947</v>
+        <v>1267</v>
       </c>
       <c r="C8" t="n">
-        <v>98183.28165374677</v>
+        <v>85921.72727272728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bainbridge</t>
+          <t>Battle Ground</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1267</v>
+        <v>1129</v>
       </c>
       <c r="C9" t="n">
-        <v>85921.72727272728</v>
+        <v>80003.29357798165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Battle Ground</t>
+          <t>Bellevue</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1129</v>
+        <v>1273</v>
       </c>
       <c r="C10" t="n">
-        <v>80003.29357798165</v>
+        <v>91583.06451612903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Bellevue</t>
+          <t>Bellingham</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1273</v>
+        <v>1169</v>
       </c>
       <c r="C11" t="n">
-        <v>91583.06451612903</v>
+        <v>81914.19713261649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Bellingham</t>
+          <t>Bethel</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1169</v>
+        <v>1046</v>
       </c>
       <c r="C12" t="n">
-        <v>81914.19713261649</v>
+        <v>76995.17841409691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bethel</t>
+          <t>Blaine</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1046</v>
+        <v>1135</v>
       </c>
       <c r="C13" t="n">
-        <v>76995.17841409691</v>
+        <v>85511.80769230769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bickleton</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Bremerton</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1024</v>
+      </c>
       <c r="C14" t="n">
-        <v>69152.375</v>
+        <v>89494.55118110236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Blaine</t>
+          <t>Brewster</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1135</v>
+        <v>890</v>
       </c>
       <c r="C15" t="n">
-        <v>85511.80769230769</v>
+        <v>69024.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Boistfort</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>Bridgeport</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>932</v>
+      </c>
       <c r="C16" t="n">
-        <v>48246</v>
+        <v>71198.5925925926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bremerton</t>
+          <t>Burlington-Edison</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1024</v>
+        <v>994</v>
       </c>
       <c r="C17" t="n">
-        <v>89494.55118110236</v>
+        <v>87945.53012048193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Brewster</t>
+          <t>Camas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>890</v>
+        <v>1182</v>
       </c>
       <c r="C18" t="n">
-        <v>69024.88</v>
+        <v>85689.535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Cape Flattery</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>932</v>
+        <v>1028</v>
       </c>
       <c r="C19" t="n">
-        <v>71198.5925925926</v>
+        <v>74721.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Brinnon</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Cascade</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1057</v>
+      </c>
       <c r="C20" t="n">
-        <v>63464</v>
+        <v>69241.22222222222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Burlington-Edison</t>
+          <t>Cashmere</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>994</v>
+        <v>1069</v>
       </c>
       <c r="C21" t="n">
-        <v>87945.53012048193</v>
+        <v>82226.97674418605</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Camas</t>
+          <t>Castle Rock</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182</v>
+        <v>999</v>
       </c>
       <c r="C22" t="n">
-        <v>85689.535</v>
+        <v>71649.89999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cape Flattery</t>
+          <t>Central Kitsap</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1028</v>
+        <v>1145</v>
       </c>
       <c r="C23" t="n">
-        <v>74721.05</v>
+        <v>96549.6094890511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Carbonado</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Central Valley</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1142</v>
+      </c>
       <c r="C24" t="n">
-        <v>75148</v>
+        <v>85352.7627118644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cascade</t>
+          <t>Centralia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057</v>
+        <v>1018</v>
       </c>
       <c r="C25" t="n">
-        <v>69241.22222222222</v>
+        <v>84166.9420289855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Cashmere</t>
+          <t>Chehalis</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1069</v>
+        <v>1091</v>
       </c>
       <c r="C26" t="n">
-        <v>82226.97674418605</v>
+        <v>86177.83333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Castle Rock</t>
+          <t>Cheney</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>999</v>
+        <v>1092</v>
       </c>
       <c r="C27" t="n">
-        <v>71649.89999999999</v>
+        <v>71898.16197183098</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Centerville</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>Chewelah</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1045</v>
+      </c>
       <c r="C28" t="n">
-        <v>93540</v>
+        <v>75127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Central Kitsap</t>
+          <t>Chimacum</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1145</v>
+        <v>1101</v>
       </c>
       <c r="C29" t="n">
-        <v>96549.6094890511</v>
+        <v>72636.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Central Valley</t>
+          <t>Clarkston</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1142</v>
+        <v>1085</v>
       </c>
       <c r="C30" t="n">
-        <v>85352.7627118644</v>
+        <v>85806.6129032258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Centralia</t>
+          <t>Cle Elum-Roslyn</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1018</v>
+        <v>1081</v>
       </c>
       <c r="C31" t="n">
-        <v>84166.9420289855</v>
+        <v>63626.92307692308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chehalis</t>
+          <t>Clover Park</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1091</v>
+        <v>1054</v>
       </c>
       <c r="C32" t="n">
-        <v>86177.83333333333</v>
+        <v>88222.2072072072</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Cheney</t>
+          <t>Colfax</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C33" t="n">
-        <v>71898.16197183098</v>
+        <v>64535.61111111111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chewelah</t>
+          <t>College Place</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C34" t="n">
-        <v>75127</v>
+        <v>68112.13333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Chief Leschi Tribal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>Colton</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1044</v>
+      </c>
       <c r="C35" t="n">
-        <v>66293.85185185185</v>
+        <v>74406.44444444444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Chimacum</t>
+          <t>Columbia (Wal)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1101</v>
+        <v>1057</v>
       </c>
       <c r="C36" t="n">
-        <v>72636.72</v>
+        <v>81437.63636363637</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clarkston</t>
+          <t>Colville</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085</v>
+        <v>1006</v>
       </c>
       <c r="C37" t="n">
-        <v>85806.6129032258</v>
+        <v>77341.01923076923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cle Elum-Roslyn</t>
+          <t>Coulee-Hartline</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1081</v>
+        <v>1057</v>
       </c>
       <c r="C38" t="n">
-        <v>63626.92307692308</v>
+        <v>47796.83333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Clover Park</t>
+          <t>Coupeville</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1054</v>
+        <v>1004</v>
       </c>
       <c r="C39" t="n">
-        <v>88222.2072072072</v>
+        <v>89897.74074074074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Colfax</t>
+          <t>Curlew</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1080</v>
+        <v>1043</v>
       </c>
       <c r="C40" t="n">
-        <v>64535.61111111111</v>
+        <v>57367.36363636364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>College Place</t>
+          <t>Cusick</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1037</v>
+        <v>895</v>
       </c>
       <c r="C41" t="n">
-        <v>68112.13333333333</v>
+        <v>60756.41666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Colton</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1044</v>
+        <v>962</v>
       </c>
       <c r="C42" t="n">
-        <v>74406.44444444444</v>
+        <v>68025.375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Columbia (Ste)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1035</v>
+      </c>
       <c r="C43" t="n">
-        <v>62614.83333333334</v>
+        <v>67641.38888888889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Columbia (Wal)</t>
+          <t>Deer Park</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C44" t="n">
-        <v>81437.63636363637</v>
+        <v>77768.56060606061</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Colville</t>
+          <t>East Valley (Spo)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C45" t="n">
-        <v>77341.01923076923</v>
+        <v>82436.41666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Concrete</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>East Valley (Yak)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1066</v>
+      </c>
       <c r="C46" t="n">
-        <v>81037.57142857143</v>
+        <v>81084.90140845071</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Conway</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>Eastmont</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1056</v>
+      </c>
       <c r="C47" t="n">
-        <v>108898.8333333333</v>
+        <v>82602.39285714286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Coulee-Hartline</t>
+          <t>Eatonville</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C48" t="n">
-        <v>47796.83333333334</v>
+        <v>76782.20370370371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Coupeville</t>
+          <t>Edmonds</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1004</v>
+        <v>1129</v>
       </c>
       <c r="C49" t="n">
-        <v>89897.74074074074</v>
+        <v>89397.07439824945</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Crescent</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>Ellensburg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1107</v>
+      </c>
       <c r="C50" t="n">
-        <v>73516</v>
+        <v>74097.85333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Creston</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>Elma</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1088</v>
+      </c>
       <c r="C51" t="n">
-        <v>60930</v>
+        <v>87594.15384615384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Curlew</t>
+          <t>Enumclaw</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="C52" t="n">
-        <v>57367.36363636364</v>
+        <v>88423.42391304347</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Cusick</t>
+          <t>Ephrata</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>895</v>
+        <v>1009</v>
       </c>
       <c r="C53" t="n">
-        <v>60756.41666666666</v>
+        <v>80652.15254237287</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Darrington</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>Everett</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1031</v>
+      </c>
       <c r="C54" t="n">
-        <v>91947.5</v>
+        <v>107466.3848039216</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Evergreen (Clark)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>962</v>
+        <v>1076</v>
       </c>
       <c r="C55" t="n">
-        <v>68025.375</v>
+        <v>83793.30694444444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Dayton</t>
+          <t>Federal Way</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1035</v>
+        <v>934</v>
       </c>
       <c r="C56" t="n">
-        <v>67641.38888888889</v>
+        <v>84720.11148086522</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Deer Park</t>
+          <t>Ferndale</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1056</v>
+        <v>1117</v>
       </c>
       <c r="C57" t="n">
-        <v>77768.56060606061</v>
+        <v>90355.06422018349</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Dieringer</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>Fife</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1097</v>
+      </c>
       <c r="C58" t="n">
-        <v>99022.73333333334</v>
+        <v>89722.6626506024</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ESD 112</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>Finley</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>954</v>
+      </c>
       <c r="C59" t="n">
-        <v>59151.73809523809</v>
+        <v>85126.30769230769</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>East Valley (Spo)</t>
+          <t>Franklin Pierce</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1008</v>
+        <v>914</v>
       </c>
       <c r="C60" t="n">
-        <v>82436.41666666667</v>
+        <v>83493.28735632185</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>East Valley (Yak)</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="C61" t="n">
-        <v>81084.90140845071</v>
+        <v>66346.06896551725</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Eastmont</t>
+          <t>Goldendale</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1056</v>
+        <v>1130</v>
       </c>
       <c r="C62" t="n">
-        <v>82602.39285714286</v>
+        <v>71497.41666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Easton</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>Grand Coulee Dam</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>951</v>
+      </c>
       <c r="C63" t="n">
-        <v>62410.1</v>
+        <v>63743.13043478261</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Eatonville</t>
+          <t>Grandview</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1047</v>
+        <v>903</v>
       </c>
       <c r="C64" t="n">
-        <v>76782.20370370371</v>
+        <v>75837.16666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Edmonds</t>
+          <t>Granger</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1129</v>
+        <v>938</v>
       </c>
       <c r="C65" t="n">
-        <v>89397.07439824945</v>
+        <v>84947.10526315789</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Ellensburg</t>
+          <t>Granite Falls</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1107</v>
+        <v>1079</v>
       </c>
       <c r="C66" t="n">
-        <v>74097.85333333333</v>
+        <v>92116.77551020408</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Elma</t>
+          <t>Highland</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1088</v>
+        <v>925</v>
       </c>
       <c r="C67" t="n">
-        <v>87594.15384615384</v>
+        <v>80937.14285714286</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Endicott</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>947</v>
+      </c>
       <c r="C68" t="n">
-        <v>65694.42857142857</v>
+        <v>86321.36363636363</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>Hockinson</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1091</v>
+      </c>
       <c r="C69" t="n">
-        <v>79215.09090909091</v>
+        <v>77484.36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Enumclaw</t>
+          <t>Hoquiam</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="C70" t="n">
-        <v>88423.42391304347</v>
+        <v>84651.43902439025</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Ephrata</t>
+          <t>Inchelium</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1009</v>
+        <v>846</v>
       </c>
       <c r="C71" t="n">
-        <v>80652.15254237287</v>
+        <v>77006.09090909091</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Everett</t>
+          <t>Issaquah</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1031</v>
+        <v>1270</v>
       </c>
       <c r="C72" t="n">
-        <v>107466.3848039216</v>
+        <v>93727.46506024097</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Evergreen (Clark)</t>
+          <t>Kalama</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1076</v>
+        <v>1102</v>
       </c>
       <c r="C73" t="n">
-        <v>83793.30694444444</v>
+        <v>75589.16666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Federal Way</t>
+          <t>Kelso</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>934</v>
+        <v>1016</v>
       </c>
       <c r="C74" t="n">
-        <v>84720.11148086522</v>
+        <v>72694.62385321101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Ferndale</t>
+          <t>Kennewick</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1117</v>
+        <v>1054</v>
       </c>
       <c r="C75" t="n">
-        <v>90355.06422018349</v>
+        <v>85505.72881355933</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Fife</t>
+          <t>Kent</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1097</v>
+        <v>1007</v>
       </c>
       <c r="C76" t="n">
-        <v>89722.6626506024</v>
+        <v>84460.24193548386</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Finley</t>
+          <t>Kettle Falls</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>954</v>
+        <v>1116</v>
       </c>
       <c r="C77" t="n">
-        <v>85126.30769230769</v>
+        <v>74731.42857142857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Franklin Pierce</t>
+          <t>Kiona-Benton City</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="C78" t="n">
-        <v>83493.28735632185</v>
+        <v>84956.89999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>Kittitas</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1115</v>
+        <v>968</v>
       </c>
       <c r="C79" t="n">
-        <v>66346.06896551725</v>
+        <v>71547.86363636363</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Garfield</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>La Conner</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1070</v>
+      </c>
       <c r="C80" t="n">
-        <v>66796.5</v>
+        <v>90610</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Glenwood</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>Lacenter</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1033</v>
+      </c>
       <c r="C81" t="n">
-        <v>68952</v>
+        <v>76775.51282051283</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Goldendale</t>
+          <t>Lake Chelan</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1130</v>
+        <v>964</v>
       </c>
       <c r="C82" t="n">
-        <v>71497.41666666667</v>
+        <v>80185.97826086957</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Grand Coulee Dam</t>
+          <t>Lake Stevens</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>951</v>
+        <v>1139</v>
       </c>
       <c r="C83" t="n">
-        <v>63743.13043478261</v>
+        <v>97158.78494623656</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Grandview</t>
+          <t>Lake Washington</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>903</v>
+        <v>1259</v>
       </c>
       <c r="C84" t="n">
-        <v>75837.16666666667</v>
+        <v>87408.32385466035</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Granger</t>
+          <t>Lakewood</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>938</v>
+        <v>1060</v>
       </c>
       <c r="C85" t="n">
-        <v>84947.10526315789</v>
+        <v>90627.64814814815</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Granite Falls</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C86" t="n">
-        <v>92116.77551020408</v>
+        <v>84189.92857142857</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Grapeview</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>Longview</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1078</v>
+      </c>
       <c r="C87" t="n">
-        <v>67100.33333333333</v>
+        <v>78267.67424242424</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Green Dot Destiny</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>Lyle</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>866</v>
+      </c>
       <c r="C88" t="n">
-        <v>63946.5</v>
+        <v>56195.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Green Dot Excel</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>Lynden</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1111</v>
+      </c>
       <c r="C89" t="n">
-        <v>63532.92307692308</v>
+        <v>82627.10769230769</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Green Dot Rainier</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>Mabton</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>885</v>
+      </c>
       <c r="C90" t="n">
-        <v>55501.61538461538</v>
+        <v>71505.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Griffin</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>Manson</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>923</v>
+      </c>
       <c r="C91" t="n">
-        <v>75631.77777777778</v>
+        <v>75870.10000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Harrington</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>Mary Walker</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>975</v>
+      </c>
       <c r="C92" t="n">
-        <v>58937.44444444445</v>
+        <v>75033.47368421052</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Highland</t>
+          <t>Marysville</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="C93" t="n">
-        <v>80937.14285714286</v>
+        <v>102265.7523809524</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Highline</t>
+          <t>Mead</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>947</v>
+        <v>1109</v>
       </c>
       <c r="C94" t="n">
-        <v>86321.36363636363</v>
+        <v>88774.76422764227</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Hockinson</t>
+          <t>Medical Lake</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1091</v>
+        <v>1120</v>
       </c>
       <c r="C95" t="n">
-        <v>77484.36</v>
+        <v>76985.32653061225</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Hood Canal</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>Mercer Island</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1316</v>
+      </c>
       <c r="C96" t="n">
-        <v>70381</v>
+        <v>93696.79508196721</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Hoquiam</t>
+          <t>Meridian</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1067</v>
+        <v>1116</v>
       </c>
       <c r="C97" t="n">
-        <v>84651.43902439025</v>
+        <v>80670.4054054054</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Inchelium</t>
+          <t>Methow Valley</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>846</v>
+        <v>1128</v>
       </c>
       <c r="C98" t="n">
-        <v>77006.09090909091</v>
+        <v>61129.66666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Issaquah</t>
+          <t>Monroe</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1270</v>
+        <v>1084</v>
       </c>
       <c r="C99" t="n">
-        <v>93727.46506024097</v>
+        <v>89931.5294117647</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Kahlotus</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>Montesano</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1045</v>
+      </c>
       <c r="C100" t="n">
-        <v>71795.5</v>
+        <v>90575.79411764706</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Kalama</t>
+          <t>Moses Lake</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1102</v>
+        <v>961</v>
       </c>
       <c r="C101" t="n">
-        <v>75589.16666666667</v>
+        <v>87724.80769230769</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Kelso</t>
+          <t>Mossyrock</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1016</v>
+        <v>956</v>
       </c>
       <c r="C102" t="n">
-        <v>72694.62385321101</v>
+        <v>86010.8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Kennewick</t>
+          <t>Mount Adams</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1054</v>
+        <v>990</v>
       </c>
       <c r="C103" t="n">
-        <v>85505.72881355933</v>
+        <v>76754.64285714286</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Kent</t>
+          <t>Mount Baker</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1007</v>
+        <v>1076</v>
       </c>
       <c r="C104" t="n">
-        <v>84460.24193548386</v>
+        <v>88024.3829787234</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Kettle Falls</t>
+          <t>Mt Vernon</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1116</v>
+        <v>1033</v>
       </c>
       <c r="C105" t="n">
-        <v>74731.42857142857</v>
+        <v>82926.31952662722</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Kiona-Benton City</t>
+          <t>Mukilteo</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>931</v>
+        <v>1154</v>
       </c>
       <c r="C106" t="n">
-        <v>84956.89999999999</v>
+        <v>99805.66666666667</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Kittitas</t>
+          <t>Naches Valley</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="C107" t="n">
-        <v>71547.86363636363</v>
+        <v>71116.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Klickitat</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>Napavine</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1020</v>
+      </c>
       <c r="C108" t="n">
-        <v>65581</v>
+        <v>70947.04347826086</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>La Conner</t>
+          <t>Naselle-Grays R.</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1070</v>
+        <v>1008</v>
       </c>
       <c r="C109" t="n">
-        <v>90610</v>
+        <v>76456.88235294117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Lacenter</t>
+          <t>Newport</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1033</v>
+        <v>1101</v>
       </c>
       <c r="C110" t="n">
-        <v>76775.51282051283</v>
+        <v>74007.51515151515</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Lacrosse</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>Nine Mile Falls</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1085</v>
+      </c>
       <c r="C111" t="n">
-        <v>68214.71428571429</v>
+        <v>75538.63636363637</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Lake Chelan</t>
+          <t>Nooksack Valley</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>964</v>
+        <v>1019</v>
       </c>
       <c r="C112" t="n">
-        <v>80185.97826086957</v>
+        <v>80131.83333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Lake Quinault</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>North Beach</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>915</v>
+      </c>
       <c r="C113" t="n">
-        <v>68435</v>
+        <v>63963.1875</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Lake Stevens</t>
+          <t>North Franklin</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1139</v>
+        <v>929</v>
       </c>
       <c r="C114" t="n">
-        <v>97158.78494623656</v>
+        <v>81265.1875</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Lake Washington</t>
+          <t>North Kitsap</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1259</v>
+        <v>1143</v>
       </c>
       <c r="C115" t="n">
-        <v>87408.32385466035</v>
+        <v>88934.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Lakewood</t>
+          <t>North Mason</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1060</v>
+        <v>1022</v>
       </c>
       <c r="C116" t="n">
-        <v>90627.64814814815</v>
+        <v>83878.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Lamont</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
+          <t>North Thurston</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1084</v>
+      </c>
       <c r="C117" t="n">
-        <v>48322.6</v>
+        <v>81185.42296918767</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Northshore</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1076</v>
+        <v>1214</v>
       </c>
       <c r="C118" t="n">
-        <v>84189.92857142857</v>
+        <v>98325.4465116279</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Lind</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
+          <t>Oak Harbor</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1113</v>
+      </c>
       <c r="C119" t="n">
-        <v>72154.42857142857</v>
+        <v>90054.10852713179</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Longview</t>
+          <t>Oakesdale</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1078</v>
+        <v>1048</v>
       </c>
       <c r="C120" t="n">
-        <v>78267.67424242424</v>
+        <v>71763.57142857143</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Loon Lake</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>Ocean Beach</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1070</v>
+      </c>
       <c r="C121" t="n">
-        <v>32479.75</v>
+        <v>70176.96296296296</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Lopez Island</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
+          <t>Ocosta</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1110</v>
+      </c>
       <c r="C122" t="n">
-        <v>67720.41666666667</v>
+        <v>85015.27777777778</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Lummi Tribal</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>966</v>
+      </c>
       <c r="C123" t="n">
-        <v>64241.73684210526</v>
+        <v>74351.03703703704</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Lyle</t>
+          <t>Olympia</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>866</v>
+        <v>1196</v>
       </c>
       <c r="C124" t="n">
-        <v>56195.5</v>
+        <v>74368.97983870968</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Lynden</t>
+          <t>Omak</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1111</v>
+        <v>1003</v>
       </c>
       <c r="C125" t="n">
-        <v>82627.10769230769</v>
+        <v>75693.83333333333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Mabton</t>
+          <t>Onalaska</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>885</v>
+        <v>970</v>
       </c>
       <c r="C126" t="n">
-        <v>71505.95</v>
+        <v>72044.72</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Mansfield</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>Orcas Island</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1285</v>
+      </c>
       <c r="C127" t="n">
-        <v>70830.5</v>
+        <v>74052.35714285714</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Manson</t>
+          <t>Oroville</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C128" t="n">
-        <v>75870.10000000001</v>
+        <v>68657.94117647059</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Mary M. Knight</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>Orting</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1057</v>
+      </c>
       <c r="C129" t="n">
-        <v>57203.14285714286</v>
+        <v>82200.90566037736</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Mary Walker</t>
+          <t>Othello</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="C130" t="n">
-        <v>75033.47368421052</v>
+        <v>76333.51162790698</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Marysville</t>
+          <t>Pasco</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>954</v>
+        <v>987</v>
       </c>
       <c r="C131" t="n">
-        <v>102265.7523809524</v>
+        <v>77127.07633587786</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>McCleary</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>Pateros</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>927</v>
+      </c>
       <c r="C132" t="n">
-        <v>52108.6</v>
+        <v>79064.30769230769</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Mead</t>
+          <t>Peninsula</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1109</v>
+        <v>1135</v>
       </c>
       <c r="C133" t="n">
-        <v>88774.76422764227</v>
+        <v>82913.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Medical Lake</t>
+          <t>Pomeroy</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1120</v>
+        <v>1007</v>
       </c>
       <c r="C134" t="n">
-        <v>76985.32653061225</v>
+        <v>71862</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Mercer Island</t>
+          <t>Port Angeles</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1316</v>
+        <v>1048</v>
       </c>
       <c r="C135" t="n">
-        <v>93696.79508196721</v>
+        <v>82678.05813953489</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Meridian</t>
+          <t>Port Townsend</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1116</v>
+        <v>1155</v>
       </c>
       <c r="C136" t="n">
-        <v>80670.4054054054</v>
+        <v>76128.05555555556</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Methow Valley</t>
+          <t>Prescott</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1128</v>
+        <v>891</v>
       </c>
       <c r="C137" t="n">
-        <v>61129.66666666666</v>
+        <v>71967</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Mill A</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
+          <t>Prosser</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1014</v>
+      </c>
       <c r="C138" t="n">
-        <v>59665.1</v>
+        <v>77702.65714285715</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Monroe</t>
+          <t>Pullman</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1084</v>
+        <v>1200</v>
       </c>
       <c r="C139" t="n">
-        <v>89931.5294117647</v>
+        <v>73997.04477611941</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Montesano</t>
+          <t>Puyallup</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1045</v>
+        <v>1093</v>
       </c>
       <c r="C140" t="n">
-        <v>90575.79411764706</v>
+        <v>91953.35714285714</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Morton</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>Quilcene</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>952</v>
+      </c>
       <c r="C141" t="n">
-        <v>58555.72727272727</v>
+        <v>72115.09090909091</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Moses Lake</t>
+          <t>Quillayute Valley</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="C142" t="n">
-        <v>87724.80769230769</v>
+        <v>71301.70370370371</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Mossyrock</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C143" t="n">
-        <v>86010.8</v>
+        <v>80546.32203389831</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Mount Adams</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="C144" t="n">
-        <v>76754.64285714286</v>
+        <v>79170.33333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Mount Baker</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1076</v>
+        <v>993</v>
       </c>
       <c r="C145" t="n">
-        <v>88024.3829787234</v>
+        <v>78827.25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Mount Pleasant</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
+          <t>Reardan</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>994</v>
+      </c>
       <c r="C146" t="n">
-        <v>55568</v>
+        <v>73648.83333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Mt Vernon</t>
+          <t>Renton</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1033</v>
+        <v>999</v>
       </c>
       <c r="C147" t="n">
-        <v>82926.31952662722</v>
+        <v>86721.72881355933</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Muckleshoot Tribal</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>Richland</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1145</v>
+      </c>
       <c r="C148" t="n">
-        <v>85221.03448275862</v>
+        <v>83950.09477124183</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Mukilteo</t>
+          <t>Ridgefield</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C149" t="n">
-        <v>99805.66666666667</v>
+        <v>77876.08333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Naches Valley</t>
+          <t>Ritzville</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="C150" t="n">
-        <v>71116.7</v>
+        <v>78109.07142857143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Napavine</t>
+          <t>Riverside</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="C151" t="n">
-        <v>70947.04347826086</v>
+        <v>75479.22580645161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Naselle-Grays R.</t>
+          <t>Riverview</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1008</v>
+        <v>1167</v>
       </c>
       <c r="C152" t="n">
-        <v>76456.88235294117</v>
+        <v>89699.13253012048</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Nespelem</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
+          <t>Rochester</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1101</v>
+      </c>
       <c r="C153" t="n">
-        <v>42515</v>
+        <v>73636.82142857143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Newport</t>
+          <t>Royal</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1101</v>
+        <v>958</v>
       </c>
       <c r="C154" t="n">
-        <v>74007.51515151515</v>
+        <v>73285.65789473684</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Nine Mile Falls</t>
+          <t>San Juan Island</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1085</v>
+        <v>1128</v>
       </c>
       <c r="C155" t="n">
-        <v>75538.63636363637</v>
+        <v>83634.15384615384</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nooksack Valley</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1019</v>
+        <v>1103</v>
       </c>
       <c r="C156" t="n">
-        <v>80131.83333333333</v>
+        <v>84796.65109034268</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>North Beach</t>
+          <t>Sedro-Woolley</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>915</v>
+        <v>1104</v>
       </c>
       <c r="C157" t="n">
-        <v>63963.1875</v>
+        <v>86852.28828828828</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>North Franklin</t>
+          <t>Selah</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>929</v>
+        <v>1058</v>
       </c>
       <c r="C158" t="n">
-        <v>81265.1875</v>
+        <v>76075.33720930232</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>North Kitsap</t>
+          <t>Selkirk</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1143</v>
+        <v>1005</v>
       </c>
       <c r="C159" t="n">
-        <v>88934.8</v>
+        <v>63658.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>North Mason</t>
+          <t>Sequim</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1022</v>
+        <v>1136</v>
       </c>
       <c r="C160" t="n">
-        <v>83878.5</v>
+        <v>82465.89393939394</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>North River</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
+          <t>Shelton</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1035</v>
+      </c>
       <c r="C161" t="n">
-        <v>81988.83333333333</v>
+        <v>78774.64102564103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>North Thurston</t>
+          <t>Shoreline</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1084</v>
+        <v>1167</v>
       </c>
       <c r="C162" t="n">
-        <v>81185.42296918767</v>
+        <v>95997.6213592233</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Northport</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>Snohomish</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1174</v>
+      </c>
       <c r="C163" t="n">
-        <v>65752.89999999999</v>
+        <v>100287.8651162791</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Northshore</t>
+          <t>Snoqualmie Valley</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1214</v>
+        <v>1151</v>
       </c>
       <c r="C164" t="n">
-        <v>98325.4465116279</v>
+        <v>84148.99280575539</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Oak Harbor</t>
+          <t>Soap Lake</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1113</v>
+        <v>910</v>
       </c>
       <c r="C165" t="n">
-        <v>90054.10852713179</v>
+        <v>72980.16666666667</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Oakesdale</t>
+          <t>South Bend</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1048</v>
+        <v>1014</v>
       </c>
       <c r="C166" t="n">
-        <v>71763.57142857143</v>
+        <v>78757.14285714286</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Oakville</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
+          <t>South Kitsap</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>985</v>
+      </c>
       <c r="C167" t="n">
-        <v>61848.7</v>
+        <v>89551.08673469388</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Ocean Beach</t>
+          <t>South Whidbey</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1070</v>
+        <v>1083</v>
       </c>
       <c r="C168" t="n">
-        <v>70176.96296296296</v>
+        <v>93654.05</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Ocosta</t>
+          <t>Spokane</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1110</v>
+        <v>995</v>
       </c>
       <c r="C169" t="n">
-        <v>85015.27777777778</v>
+        <v>89246.97576736672</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Odessa</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
+          <t>Stanwood-Camano</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1104</v>
+      </c>
       <c r="C170" t="n">
-        <v>72138.30769230769</v>
+        <v>96648.09375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Steilacoom Hist.</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>966</v>
+        <v>1126</v>
       </c>
       <c r="C171" t="n">
-        <v>74351.03703703704</v>
+        <v>84311.07462686567</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Olympia</t>
+          <t>Stevenson-Carson</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1196</v>
+        <v>1061</v>
       </c>
       <c r="C172" t="n">
-        <v>74368.97983870968</v>
+        <v>77063.81818181818</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Omak</t>
+          <t>Sultan</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1003</v>
+        <v>1055</v>
       </c>
       <c r="C173" t="n">
-        <v>75693.83333333333</v>
+        <v>90180.73214285714</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Onalaska</t>
+          <t>Sumner</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>970</v>
+        <v>1090</v>
       </c>
       <c r="C174" t="n">
-        <v>72044.72</v>
+        <v>87388.91219512196</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Onion Creek</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
+          <t>Sunnyside</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>913</v>
+      </c>
       <c r="C175" t="n">
-        <v>76119</v>
+        <v>82104.39189189189</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Orcas Island</t>
+          <t>Tacoma</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1285</v>
+        <v>964</v>
       </c>
       <c r="C176" t="n">
-        <v>74052.35714285714</v>
+        <v>89634.79710144928</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Orient</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
+          <t>Taholah</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>803</v>
+      </c>
       <c r="C177" t="n">
-        <v>63070.5</v>
+        <v>82888.39999999999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Orondo</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
+          <t>Tahoma</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1150</v>
+      </c>
       <c r="C178" t="n">
-        <v>55577.25</v>
+        <v>94550.24571428572</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Oroville</t>
+          <t>Tenino</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>929</v>
+        <v>1078</v>
       </c>
       <c r="C179" t="n">
-        <v>68657.94117647059</v>
+        <v>70665.48387096774</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Orting</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1057</v>
+        <v>999</v>
       </c>
       <c r="C180" t="n">
-        <v>82200.90566037736</v>
+        <v>84824.12</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Othello</t>
+          <t>Tonasket</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="C181" t="n">
-        <v>76333.51162790698</v>
+        <v>67519.80645161291</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>PRIDE Prep</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
+          <t>Toppenish</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>905</v>
+      </c>
       <c r="C182" t="n">
-        <v>47916.18518518518</v>
+        <v>74984.91578947369</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Palouse</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
+          <t>Toutle Lake</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1091</v>
+      </c>
       <c r="C183" t="n">
-        <v>69660.28571428571</v>
+        <v>74942.38888888889</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Pasco</t>
+          <t>Trout Lake</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>987</v>
+        <v>1176</v>
       </c>
       <c r="C184" t="n">
-        <v>77127.07633587786</v>
+        <v>72777.88888888889</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Pateros</t>
+          <t>Tukwila</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="C185" t="n">
-        <v>79064.30769230769</v>
+        <v>87008.21621621621</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Paterson</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
+          <t>Tumwater</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1140</v>
+      </c>
       <c r="C186" t="n">
-        <v>78718.5</v>
+        <v>83924.30872483221</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Pe Ell</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
+          <t>University Place</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1155</v>
+      </c>
       <c r="C187" t="n">
-        <v>77719.61538461539</v>
+        <v>87628.60550458716</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Peninsula</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1135</v>
+        <v>1001</v>
       </c>
       <c r="C188" t="n">
-        <v>82913.5</v>
+        <v>79194.02925045704</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Pioneer</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
+          <t>Vashon Island</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1197</v>
+      </c>
       <c r="C189" t="n">
-        <v>74761.07142857143</v>
+        <v>71903.14893617021</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Pomeroy</t>
+          <t>Wahkiakum</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="C190" t="n">
-        <v>71862</v>
+        <v>62502.58823529412</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Port Angeles</t>
+          <t>Wahluke</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1048</v>
+        <v>939</v>
       </c>
       <c r="C191" t="n">
-        <v>82678.05813953489</v>
+        <v>73278.31666666667</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Port Townsend</t>
+          <t>Walla Walla</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1155</v>
+        <v>1126</v>
       </c>
       <c r="C192" t="n">
-        <v>76128.05555555556</v>
+        <v>74381.31782945736</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Prescott</t>
+          <t>Wapato</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="C193" t="n">
-        <v>71967</v>
+        <v>80603.02499999999</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Prosser</t>
+          <t>Warden</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1014</v>
+        <v>977</v>
       </c>
       <c r="C194" t="n">
-        <v>77702.65714285715</v>
+        <v>72615.22222222222</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Pullman</t>
+          <t>Washougal</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1200</v>
+        <v>1081</v>
       </c>
       <c r="C195" t="n">
-        <v>73997.04477611941</v>
+        <v>81542.03448275862</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Puyallup</t>
+          <t>Waterville</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1093</v>
+        <v>888</v>
       </c>
       <c r="C196" t="n">
-        <v>91953.35714285714</v>
+        <v>63312.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Quilcene</t>
+          <t>Wellpinit</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>952</v>
+        <v>834</v>
       </c>
       <c r="C197" t="n">
-        <v>72115.09090909091</v>
+        <v>85841.41176470589</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Quileute Tribal</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr"/>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1073</v>
+      </c>
       <c r="C198" t="n">
-        <v>78099.57142857143</v>
+        <v>79671.39583333333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Quillayute Valley</t>
+          <t>West Valley (Spo)</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>981</v>
+        <v>1090</v>
       </c>
       <c r="C199" t="n">
-        <v>71301.70370370371</v>
+        <v>67000.46391752578</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>West Valley (Yak)</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>945</v>
+        <v>1016</v>
       </c>
       <c r="C200" t="n">
-        <v>80546.32203389831</v>
+        <v>84908.36538461539</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>White Pass</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="C201" t="n">
-        <v>79170.33333333333</v>
+        <v>75081.16666666667</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Rainier Prep</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
+          <t>White River</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1028</v>
+      </c>
       <c r="C202" t="n">
-        <v>62515</v>
+        <v>83172.96666666666</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>White Salmon</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>993</v>
+        <v>1095</v>
       </c>
       <c r="C203" t="n">
-        <v>78827.25</v>
+        <v>70157.05882352941</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Reardan</t>
+          <t>Wilbur</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C204" t="n">
-        <v>73648.83333333333</v>
+        <v>71092.66666666667</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Renton</t>
+          <t>Winlock</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="C205" t="n">
-        <v>86721.72881355933</v>
+        <v>75497.60869565218</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Republic</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>Wishram</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>903</v>
+      </c>
       <c r="C206" t="n">
-        <v>66073.9375</v>
+        <v>70032.60000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Richland</t>
+          <t>Woodland</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1145</v>
+        <v>1020</v>
       </c>
       <c r="C207" t="n">
-        <v>83950.09477124183</v>
+        <v>76084.64912280702</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Ridgefield</t>
+          <t>Yakima</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1146</v>
+        <v>927</v>
       </c>
       <c r="C208" t="n">
-        <v>77876.08333333333</v>
+        <v>86729.04278074867</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Ritzville</t>
+          <t>Yelm</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C209" t="n">
-        <v>78109.07142857143</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>Riverside</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C210" t="n">
-        <v>75479.22580645161</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>Riverview</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C211" t="n">
-        <v>89699.13253012048</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>Rochester</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>1101</v>
-      </c>
-      <c r="C212" t="n">
-        <v>73636.82142857143</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>Rosalia</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="n">
-        <v>68969.8</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>Royal</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>958</v>
-      </c>
-      <c r="C214" t="n">
-        <v>73285.65789473684</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>Saint John</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>San Juan Island</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>1128</v>
-      </c>
-      <c r="C216" t="n">
-        <v>83634.15384615384</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>Seattle</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>1103</v>
-      </c>
-      <c r="C217" t="n">
-        <v>84796.65109034268</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>Sedro-Woolley</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>1104</v>
-      </c>
-      <c r="C218" t="n">
-        <v>86852.28828828828</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>Selah</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1058</v>
-      </c>
-      <c r="C219" t="n">
-        <v>76075.33720930232</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>Selkirk</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C220" t="n">
-        <v>63658.2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>Sequim</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>1136</v>
-      </c>
-      <c r="C221" t="n">
-        <v>82465.89393939394</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>Shelton</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C222" t="n">
-        <v>78774.64102564103</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>Shoreline</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C223" t="n">
-        <v>95997.6213592233</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>Skamania</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="n">
-        <v>55158.5</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>Skykomish</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="n">
-        <v>82768.8</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>Snohomish</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>1174</v>
-      </c>
-      <c r="C226" t="n">
-        <v>100287.8651162791</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>Snoqualmie Valley</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C227" t="n">
-        <v>84148.99280575539</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>Soap Lake</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>910</v>
-      </c>
-      <c r="C228" t="n">
-        <v>72980.16666666667</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>South Bend</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>1014</v>
-      </c>
-      <c r="C229" t="n">
-        <v>78757.14285714286</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>South Kitsap</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>985</v>
-      </c>
-      <c r="C230" t="n">
-        <v>89551.08673469388</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>South Whidbey</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>1083</v>
-      </c>
-      <c r="C231" t="n">
-        <v>93654.05</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>Southside</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="n">
-        <v>70497</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>Spokane</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>995</v>
-      </c>
-      <c r="C233" t="n">
-        <v>89246.97576736672</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>Spokane Int'l Acad</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="n">
-        <v>53381.4</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>Sprague</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="n">
-        <v>51865.71428571428</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>St. John</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="n">
-        <v>60233.11111111111</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>Stanwood-Camano</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>1104</v>
-      </c>
-      <c r="C237" t="n">
-        <v>96648.09375</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>Starbuck</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="n">
-        <v>68196</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>Steilacoom Hist.</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>1126</v>
-      </c>
-      <c r="C239" t="n">
-        <v>84311.07462686567</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>Steptoe</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="n">
-        <v>73108.5</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>Stevenson-Carson</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>1061</v>
-      </c>
-      <c r="C241" t="n">
-        <v>77063.81818181818</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>Sultan</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>1055</v>
-      </c>
-      <c r="C242" t="n">
-        <v>90180.73214285714</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>Summit Atlas</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="n">
-        <v>54827.68421052631</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>Summit Olympus</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="n">
-        <v>54277</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>Summit Sierra</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="n">
-        <v>59822</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>Summit Valley</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="n">
-        <v>57741.5</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>Sumner</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C247" t="n">
-        <v>87388.91219512196</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>Sunnyside</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>913</v>
-      </c>
-      <c r="C248" t="n">
-        <v>82104.39189189189</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>Suquamish Tribal</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="n">
-        <v>62988.44444444445</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>Tacoma</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>964</v>
-      </c>
-      <c r="C250" t="n">
-        <v>89634.79710144928</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>Taholah</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>803</v>
-      </c>
-      <c r="C251" t="n">
-        <v>82888.39999999999</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>Tahoma</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>1150</v>
-      </c>
-      <c r="C252" t="n">
-        <v>94550.24571428572</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>Tekoa</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="n">
-        <v>65049.4</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>Tenino</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>1078</v>
-      </c>
-      <c r="C254" t="n">
-        <v>70665.48387096774</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="inlineStr">
-        <is>
-          <t>Thorp</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="n">
-        <v>66271.33333333333</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="inlineStr">
-        <is>
-          <t>Toledo</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>999</v>
-      </c>
-      <c r="C256" t="n">
-        <v>84824.12</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="inlineStr">
-        <is>
-          <t>Tonasket</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>989</v>
-      </c>
-      <c r="C257" t="n">
-        <v>67519.80645161291</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="inlineStr">
-        <is>
-          <t>Toppenish</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>905</v>
-      </c>
-      <c r="C258" t="n">
-        <v>74984.91578947369</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="inlineStr">
-        <is>
-          <t>Touchet</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="n">
-        <v>71744.61538461539</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>Toutle Lake</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>1091</v>
-      </c>
-      <c r="C260" t="n">
-        <v>74942.38888888889</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="inlineStr">
-        <is>
-          <t>Trout Lake</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C261" t="n">
-        <v>72777.88888888889</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="inlineStr">
-        <is>
-          <t>Tukwila</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>905</v>
-      </c>
-      <c r="C262" t="n">
-        <v>87008.21621621621</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="inlineStr">
-        <is>
-          <t>Tumwater</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>1140</v>
-      </c>
-      <c r="C263" t="n">
-        <v>83924.30872483221</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>Unassociated</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>1115</v>
-      </c>
-      <c r="C264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>Union Gap</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="n">
-        <v>65892.44444444444</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>University Place</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>1155</v>
-      </c>
-      <c r="C266" t="n">
-        <v>87628.60550458716</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="inlineStr">
-        <is>
-          <t>Valley</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="n">
-        <v>64662.57692307692</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C268" t="n">
-        <v>79194.02925045704</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="inlineStr">
-        <is>
-          <t>Vashon Island</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>1197</v>
-      </c>
-      <c r="C269" t="n">
-        <v>71903.14893617021</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="inlineStr">
-        <is>
-          <t>Wa He Lut Tribal</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="n">
-        <v>68156</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="inlineStr">
-        <is>
-          <t>Wahkiakum</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>997</v>
-      </c>
-      <c r="C271" t="n">
-        <v>62502.58823529412</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="inlineStr">
-        <is>
-          <t>Wahluke</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>939</v>
-      </c>
-      <c r="C272" t="n">
-        <v>73278.31666666667</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="inlineStr">
-        <is>
-          <t>Waitsburg</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="n">
-        <v>79651.27272727272</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="inlineStr">
-        <is>
-          <t>Walla Walla</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>1126</v>
-      </c>
-      <c r="C274" t="n">
-        <v>74381.31782945736</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="inlineStr">
-        <is>
-          <t>Wapato</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>896</v>
-      </c>
-      <c r="C275" t="n">
-        <v>80603.02499999999</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="inlineStr">
-        <is>
-          <t>Warden</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>977</v>
-      </c>
-      <c r="C276" t="n">
-        <v>72615.22222222222</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="inlineStr">
-        <is>
-          <t>Washougal</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>1081</v>
-      </c>
-      <c r="C277" t="n">
-        <v>81542.03448275862</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="inlineStr">
-        <is>
-          <t>Washtucna</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr"/>
-      <c r="C278" t="n">
-        <v>75941.625</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="inlineStr">
-        <is>
-          <t>Waterville</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>888</v>
-      </c>
-      <c r="C279" t="n">
-        <v>63312.5</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="inlineStr">
-        <is>
-          <t>Wellpinit</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>834</v>
-      </c>
-      <c r="C280" t="n">
-        <v>85841.41176470589</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>1073</v>
-      </c>
-      <c r="C281" t="n">
-        <v>79671.39583333333</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="inlineStr">
-        <is>
-          <t>West Valley (Spo)</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C282" t="n">
-        <v>67000.46391752578</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="inlineStr">
-        <is>
-          <t>West Valley (Yak)</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C283" t="n">
-        <v>84908.36538461539</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="inlineStr">
-        <is>
-          <t>White Pass</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>950</v>
-      </c>
-      <c r="C284" t="n">
-        <v>75081.16666666667</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="inlineStr">
-        <is>
-          <t>White River</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C285" t="n">
-        <v>83172.96666666666</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="inlineStr">
-        <is>
-          <t>White Salmon</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>1095</v>
-      </c>
-      <c r="C286" t="n">
-        <v>70157.05882352941</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="inlineStr">
-        <is>
-          <t>Wilbur</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>986</v>
-      </c>
-      <c r="C287" t="n">
-        <v>71092.66666666667</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="inlineStr">
-        <is>
-          <t>Willapa Valley</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr"/>
-      <c r="C288" t="n">
-        <v>72870.42857142857</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="inlineStr">
-        <is>
-          <t>Wilson Creek</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="n">
-        <v>68499.88888888889</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="inlineStr">
-        <is>
-          <t>Winlock</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>957</v>
-      </c>
-      <c r="C290" t="n">
-        <v>75497.60869565218</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="inlineStr">
-        <is>
-          <t>Wishkah Valley</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr"/>
-      <c r="C291" t="n">
-        <v>73580.85714285714</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="inlineStr">
-        <is>
-          <t>Wishram</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>903</v>
-      </c>
-      <c r="C292" t="n">
-        <v>70032.60000000001</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="inlineStr">
-        <is>
-          <t>Woodland</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C293" t="n">
-        <v>76084.64912280702</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="inlineStr">
-        <is>
-          <t>Yakima</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>927</v>
-      </c>
-      <c r="C294" t="n">
-        <v>86729.04278074867</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="inlineStr">
-        <is>
-          <t>Yelm</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>981</v>
-      </c>
-      <c r="C295" t="n">
         <v>75847.46212121213</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="inlineStr">
-        <is>
-          <t>Zillah</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr"/>
-      <c r="C296" t="n">
-        <v>76565.58064516129</v>
       </c>
     </row>
   </sheetData>
